--- a/dictionary/замена.xlsx
+++ b/dictionary/замена.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\ex\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947996F-C6A8-42AB-9485-CDDC705231E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA82B0-97EB-49C4-B557-AA6390333EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="не определено" sheetId="3" r:id="rId3"/>
+    <sheet name="Простые" sheetId="1" r:id="rId1"/>
+    <sheet name="Составные" sheetId="2" r:id="rId2"/>
+    <sheet name="Везде" sheetId="4" r:id="rId3"/>
+    <sheet name="не определено" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="2638">
   <si>
     <t>криминальная</t>
   </si>
@@ -6801,12 +6802,1266 @@
   <si>
     <t>самое наименьшее</t>
   </si>
+  <si>
+    <t>важная информация</t>
+  </si>
+  <si>
+    <t>важные сведения</t>
+  </si>
+  <si>
+    <t>общественный  положение</t>
+  </si>
+  <si>
+    <t>общественное положение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">высокий общественное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">высокое общественное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">свободной соперничества </t>
+  </si>
+  <si>
+    <t xml:space="preserve">свободного соперничества </t>
+  </si>
+  <si>
+    <t>общественный положение</t>
+  </si>
+  <si>
+    <t>эта аналогия</t>
+  </si>
+  <si>
+    <t>это подобие</t>
+  </si>
+  <si>
+    <t>второго шанса</t>
+  </si>
+  <si>
+    <t>второй попытки</t>
+  </si>
+  <si>
+    <t>семейная иерархия</t>
+  </si>
+  <si>
+    <t>семейный порядок</t>
+  </si>
+  <si>
+    <t>По  аналогии</t>
+  </si>
+  <si>
+    <t>По подобию</t>
+  </si>
+  <si>
+    <r>
+      <t>положительную</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">реакцию   </t>
+    </r>
+  </si>
+  <si>
+    <t>положительный ответ</t>
+  </si>
+  <si>
+    <r>
+      <t>эта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ситуация</t>
+    </r>
+  </si>
+  <si>
+    <t>этот случай</t>
+  </si>
+  <si>
+    <t>дело техники</t>
+  </si>
+  <si>
+    <t>дело времени</t>
+  </si>
+  <si>
+    <t>не интересуют</t>
+  </si>
+  <si>
+    <t>не рассматриваю</t>
+  </si>
+  <si>
+    <t>лидерские качества</t>
+  </si>
+  <si>
+    <t>качества вождя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Такая  ситуация </t>
+  </si>
+  <si>
+    <t>Такая обстановка</t>
+  </si>
+  <si>
+    <t>В норме</t>
+  </si>
+  <si>
+    <t>В естественном состоянии</t>
+  </si>
+  <si>
+    <t>новой  информации</t>
+  </si>
+  <si>
+    <t>новых сведений</t>
+  </si>
+  <si>
+    <t>эта информация</t>
+  </si>
+  <si>
+    <t>эти сведения</t>
+  </si>
+  <si>
+    <t>важнейшую значение</t>
+  </si>
+  <si>
+    <t>важнейшее значение</t>
+  </si>
+  <si>
+    <t>скандал</t>
+  </si>
+  <si>
+    <t>раздор</t>
+  </si>
+  <si>
+    <t>немотивированн</t>
+  </si>
+  <si>
+    <t>необоснованн</t>
+  </si>
+  <si>
+    <t>в  воплощения</t>
+  </si>
+  <si>
+    <t>в  воплощении</t>
+  </si>
+  <si>
+    <t>вся обсуждение</t>
+  </si>
+  <si>
+    <t>всё обсуждение</t>
+  </si>
+  <si>
+    <t>ставшая ярлык</t>
+  </si>
+  <si>
+    <t>ставшая ярлыком</t>
+  </si>
+  <si>
+    <t>переносит, переносит</t>
+  </si>
+  <si>
+    <t>один обстоятельство</t>
+  </si>
+  <si>
+    <t>одно обстоятельство</t>
+  </si>
+  <si>
+    <t>в одинаковой случая</t>
+  </si>
+  <si>
+    <t>в одинаковом случае</t>
+  </si>
+  <si>
+    <t>семейный казна</t>
+  </si>
+  <si>
+    <t>семейная казна</t>
+  </si>
+  <si>
+    <r>
+      <t>та же</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">самая правило </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">то же самое правило </t>
+  </si>
+  <si>
+    <t>достоверная сведения</t>
+  </si>
+  <si>
+    <t>достоверные сведения</t>
+  </si>
+  <si>
+    <r>
+      <t>управлять</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>животные позывы</t>
+    </r>
+  </si>
+  <si>
+    <t>управлять животными позывами</t>
+  </si>
+  <si>
+    <t>небольшой введение</t>
+  </si>
+  <si>
+    <t>небольшое введение</t>
+  </si>
+  <si>
+    <t>наибольший благополучие</t>
+  </si>
+  <si>
+    <t>наибольшее благополучие</t>
+  </si>
+  <si>
+    <t>той  сведениям</t>
+  </si>
+  <si>
+    <t>тем  сведениям</t>
+  </si>
+  <si>
+    <t>собственному мере</t>
+  </si>
+  <si>
+    <t>собственной мере</t>
+  </si>
+  <si>
+    <t xml:space="preserve">будущее возможности </t>
+  </si>
+  <si>
+    <t xml:space="preserve">будущие возможности </t>
+  </si>
+  <si>
+    <t>природный особенность</t>
+  </si>
+  <si>
+    <t>природная особенность</t>
+  </si>
+  <si>
+    <t>подобную сочетание</t>
+  </si>
+  <si>
+    <t>подобное сочетание</t>
+  </si>
+  <si>
+    <t>вызовет изъян</t>
+  </si>
+  <si>
+    <t>вызовет сбой</t>
+  </si>
+  <si>
+    <t>рукопись был правильным</t>
+  </si>
+  <si>
+    <t>рукопись была правильной</t>
+  </si>
+  <si>
+    <t>жёстко закодирован</t>
+  </si>
+  <si>
+    <t>жёстко задан</t>
+  </si>
+  <si>
+    <t>остальная ход мыслей</t>
+  </si>
+  <si>
+    <t>остальной ход мыслей</t>
+  </si>
+  <si>
+    <t>the rust programming language</t>
+  </si>
+  <si>
+    <t>Язык программирования Rust</t>
+  </si>
+  <si>
+    <t>Согласно правил написания</t>
+  </si>
+  <si>
+    <t>многословную устройство</t>
+  </si>
+  <si>
+    <t>многословное устройство</t>
+  </si>
+  <si>
+    <t>подходящим соглашением</t>
+  </si>
+  <si>
+    <t>подходящим решением</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> о стопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> о стопке</t>
+  </si>
+  <si>
+    <t>случай, в которой</t>
+  </si>
+  <si>
+    <t>случай, в котором</t>
+  </si>
+  <si>
+    <t>ход мыслей которая</t>
+  </si>
+  <si>
+    <t>ход мыслей который</t>
+  </si>
+  <si>
+    <t>средств ржавчине</t>
+  </si>
+  <si>
+    <t>средств Ржавчины</t>
+  </si>
+  <si>
+    <t>кодовой хранилища</t>
+  </si>
+  <si>
+    <t>хранилища рукописей</t>
+  </si>
+  <si>
+    <t>рукопись выполняющая</t>
+  </si>
+  <si>
+    <t>рукопись, выполняющую</t>
+  </si>
+  <si>
+    <t>основного рукописи</t>
+  </si>
+  <si>
+    <t>основной рукописи</t>
+  </si>
+  <si>
+    <t>вложенный среда</t>
+  </si>
+  <si>
+    <t>вложенная среда</t>
+  </si>
+  <si>
+    <t>написан рукопись</t>
+  </si>
+  <si>
+    <t>написана рукопись</t>
+  </si>
+  <si>
+    <t>рукопись имеющий</t>
+  </si>
+  <si>
+    <t>рукопись, имеющая</t>
+  </si>
+  <si>
+    <t>управлять устройство</t>
+  </si>
+  <si>
+    <t>управлять устройством</t>
+  </si>
+  <si>
+    <t>Рукопись следующий</t>
+  </si>
+  <si>
+    <t>Рукопись следующая</t>
+  </si>
+  <si>
+    <t>звено закрыт</t>
+  </si>
+  <si>
+    <t>звено закрыто</t>
+  </si>
+  <si>
+    <t>пустой проверка</t>
+  </si>
+  <si>
+    <t>пустую проверку</t>
+  </si>
+  <si>
+    <t>в последующей разделы</t>
+  </si>
+  <si>
+    <t>в последующих разделах</t>
+  </si>
+  <si>
+    <t>данную возможности</t>
+  </si>
+  <si>
+    <t>данные возможности</t>
+  </si>
+  <si>
+    <t>такую устройство</t>
+  </si>
+  <si>
+    <t>такое устройство</t>
+  </si>
+  <si>
+    <t>Разумная создание</t>
+  </si>
+  <si>
+    <t>Разумное создание</t>
+  </si>
+  <si>
+    <t>Пренебрегаем
+их</t>
+  </si>
+  <si>
+    <t>Пренебрегаем
+ими</t>
+  </si>
+  <si>
+    <t>выполняемый
+дело</t>
+  </si>
+  <si>
+    <t>выполняемое
+дело</t>
+  </si>
+  <si>
+    <t>в этой же папки</t>
+  </si>
+  <si>
+    <t>в этой же папке</t>
+  </si>
+  <si>
+    <t>Такая создание</t>
+  </si>
+  <si>
+    <t>Такое создание</t>
+  </si>
+  <si>
+    <t>стороннего рукописи</t>
+  </si>
+  <si>
+    <t>сторонней рукописи</t>
+  </si>
+  <si>
+    <t>какой-либо рукописи</t>
+  </si>
+  <si>
+    <t>какая-либо рукописи</t>
+  </si>
+  <si>
+    <t>Рукопись собрался</t>
+  </si>
+  <si>
+    <t>Рукопись собралась</t>
+  </si>
+  <si>
+    <t>неиспользованным рукописью</t>
+  </si>
+  <si>
+    <t>неиспользованной рукописью</t>
+  </si>
+  <si>
+    <t>корневой звено</t>
+  </si>
+  <si>
+    <t>корневое звено</t>
+  </si>
+  <si>
+    <t>со разделами</t>
+  </si>
+  <si>
+    <t>с разделами</t>
+  </si>
+  <si>
+    <t>среда в котором</t>
+  </si>
+  <si>
+    <t>среда в которой</t>
+  </si>
+  <si>
+    <t>с исходным рукописью</t>
+  </si>
+  <si>
+    <t>с исходной рукописью</t>
+  </si>
+  <si>
+    <t>общей подходом</t>
+  </si>
+  <si>
+    <t>общим подходом</t>
+  </si>
+  <si>
+    <t>корневое раздел</t>
+  </si>
+  <si>
+    <t>корневой раздел</t>
+  </si>
+  <si>
+    <t>набор возможности</t>
+  </si>
+  <si>
+    <t>набор возможностей</t>
+  </si>
+  <si>
+    <t>дополнение, содержащий</t>
+  </si>
+  <si>
+    <t>дополнение, содержащее</t>
+  </si>
+  <si>
+    <t>своего рукописи</t>
+  </si>
+  <si>
+    <t>своей рукописи</t>
+  </si>
+  <si>
+    <t>ту же ход мыслей</t>
+  </si>
+  <si>
+    <t>тот же ход мыслей</t>
+  </si>
+  <si>
+    <t>первые части состоящей</t>
+  </si>
+  <si>
+    <t>первые части состоящие</t>
+  </si>
+  <si>
+    <t>рукописи, найденном</t>
+  </si>
+  <si>
+    <t>рукописи, найденной</t>
+  </si>
+  <si>
+    <t>связанного рукописи</t>
+  </si>
+  <si>
+    <t>связанной рукописи</t>
+  </si>
+  <si>
+    <t>на согласования рукописи</t>
+  </si>
+  <si>
+    <t>на согласовании рукописи</t>
+  </si>
+  <si>
+    <t>объединенном рукописи</t>
+  </si>
+  <si>
+    <t>объединенной рукописи</t>
+  </si>
+  <si>
+    <t>показать ржавчина</t>
+  </si>
+  <si>
+    <t>показать ржавчине</t>
+  </si>
+  <si>
+    <t>Данная изложение</t>
+  </si>
+  <si>
+    <t>Данное изложение</t>
+  </si>
+  <si>
+    <t>через проверка</t>
+  </si>
+  <si>
+    <t>через проверку</t>
+  </si>
+  <si>
+    <t>такой согласования рукописи</t>
+  </si>
+  <si>
+    <t>такого согласования рукописи</t>
+  </si>
+  <si>
+    <t>согласованном рукописи</t>
+  </si>
+  <si>
+    <t>согласованной рукописи</t>
+  </si>
+  <si>
+    <t>сообщаем Ржавчина</t>
+  </si>
+  <si>
+    <t>сообщаем Ржавчине</t>
+  </si>
+  <si>
+    <t>в корне устройство</t>
+  </si>
+  <si>
+    <t>в корне устройства</t>
+  </si>
+  <si>
+    <t>мы используется</t>
+  </si>
+  <si>
+    <t>мы используем</t>
+  </si>
+  <si>
+    <t>с такой же устройством</t>
+  </si>
+  <si>
+    <t>с таким же устройством</t>
+  </si>
+  <si>
+    <t>рукописью использующим</t>
+  </si>
+  <si>
+    <t>рукописью использующей</t>
+  </si>
+  <si>
+    <t>он ещё не собирается</t>
+  </si>
+  <si>
+    <t>она ещё не собирается</t>
+  </si>
+  <si>
+    <t>видеть среда</t>
+  </si>
+  <si>
+    <t>видеть среду</t>
+  </si>
+  <si>
+    <t>внутреннего рукописи</t>
+  </si>
+  <si>
+    <t>внутренней рукописи</t>
+  </si>
+  <si>
+    <t>внешнего рукописи</t>
+  </si>
+  <si>
+    <t>внешней рукописи</t>
+  </si>
+  <si>
+    <t>ход мыслей такая же</t>
+  </si>
+  <si>
+    <t>ход мыслей такой же</t>
+  </si>
+  <si>
+    <t>лучшие опытов</t>
+  </si>
+  <si>
+    <t>лучшие опыты</t>
+  </si>
+  <si>
+    <t>рукописью, написанным</t>
+  </si>
+  <si>
+    <t>рукописью, написанной</t>
+  </si>
+  <si>
+    <t>Данная стопки</t>
+  </si>
+  <si>
+    <t>Данная стопка</t>
+  </si>
+  <si>
+    <t>Иная выполнение</t>
+  </si>
+  <si>
+    <t>Иное выполнение</t>
+  </si>
+  <si>
+    <t>обнародованную размещение</t>
+  </si>
+  <si>
+    <t>обнародованное размещение</t>
+  </si>
+  <si>
+    <t>условной выполнения</t>
+  </si>
+  <si>
+    <t>условного выполнения</t>
+  </si>
+  <si>
+    <t>во второй указания</t>
+  </si>
+  <si>
+    <t>во втором указании</t>
+  </si>
+  <si>
+    <t>внешний дополнение</t>
+  </si>
+  <si>
+    <t>внешнее дополнение</t>
+  </si>
+  <si>
+    <t>среду, в котором</t>
+  </si>
+  <si>
+    <t>среду, в которой</t>
+  </si>
+  <si>
+    <t>две указания</t>
+  </si>
+  <si>
+    <t>два указания</t>
+  </si>
+  <si>
+    <t>одинаковым приставкой</t>
+  </si>
+  <si>
+    <t>одинаковой приставкой</t>
+  </si>
+  <si>
+    <t>в одной указания</t>
+  </si>
+  <si>
+    <t>в одном указании</t>
+  </si>
+  <si>
+    <t>одну указанию</t>
+  </si>
+  <si>
+    <t>одно указание</t>
+  </si>
+  <si>
+    <t>эта указание</t>
+  </si>
+  <si>
+    <t>это указание</t>
+  </si>
+  <si>
+    <t>из приложении</t>
+  </si>
+  <si>
+    <t>из приложения</t>
+  </si>
+  <si>
+    <t>создаём папка</t>
+  </si>
+  <si>
+    <t>создаём папку</t>
+  </si>
+  <si>
+    <t>создаем папка</t>
+  </si>
+  <si>
+    <t>создаем папку</t>
+  </si>
+  <si>
+    <t>в отдельный папка</t>
+  </si>
+  <si>
+    <t>в отдельную папку</t>
+  </si>
+  <si>
+    <t>текущий рабочий папка</t>
+  </si>
+  <si>
+    <t>текущая рабочая папка</t>
+  </si>
+  <si>
+    <t>обрабатывает папка</t>
+  </si>
+  <si>
+    <t>обрабатывает папку</t>
+  </si>
+  <si>
+    <t>создайте папка</t>
+  </si>
+  <si>
+    <t>создайте папку</t>
+  </si>
+  <si>
+    <t>один папка</t>
+  </si>
+  <si>
+    <t>одна папка</t>
+  </si>
+  <si>
+    <t>свой собственный папка</t>
+  </si>
+  <si>
+    <t>свою собственную папку</t>
+  </si>
+  <si>
+    <t>из папка</t>
+  </si>
+  <si>
+    <t>из папки</t>
+  </si>
+  <si>
+    <t>сборщиком Ржавчина</t>
+  </si>
+  <si>
+    <t>сборщиком Ржавчины</t>
+  </si>
+  <si>
+    <t>старый исполнение</t>
+  </si>
+  <si>
+    <t>старое исполнение</t>
+  </si>
+  <si>
+    <t>любым рукописью</t>
+  </si>
+  <si>
+    <t>любой рукописью</t>
+  </si>
+  <si>
+    <t>важный мгновение</t>
+  </si>
+  <si>
+    <t>важное мгновение</t>
+  </si>
+  <si>
+    <t>сообщили Ржавчина</t>
+  </si>
+  <si>
+    <t>сообщили Ржавчине</t>
+  </si>
+  <si>
+    <t>одновременную изменение</t>
+  </si>
+  <si>
+    <t>одновременное изменение</t>
+  </si>
+  <si>
+    <t>ржавчина позволял</t>
+  </si>
+  <si>
+    <t>ржавчина позволяла</t>
+  </si>
+  <si>
+    <t>был бы возможность</t>
+  </si>
+  <si>
+    <t>была бы возможность</t>
+  </si>
+  <si>
+    <t>то техника</t>
+  </si>
+  <si>
+    <t>то способ</t>
+  </si>
+  <si>
+    <t>об действиях</t>
+  </si>
+  <si>
+    <t>о действиях</t>
+  </si>
+  <si>
+    <t>библиотекой ржавчина</t>
+  </si>
+  <si>
+    <t>библиотекой ржавчины</t>
+  </si>
+  <si>
+    <t>использовании Ржавчина</t>
+  </si>
+  <si>
+    <t>использовании Ржавчины</t>
+  </si>
+  <si>
+    <t>повторение завершена</t>
+  </si>
+  <si>
+    <t>повторение завершено</t>
+  </si>
+  <si>
+    <t>равнозначным рукописи</t>
+  </si>
+  <si>
+    <t>равнозначной рукописи</t>
+  </si>
+  <si>
+    <t>к ярлыке</t>
+  </si>
+  <si>
+    <t>к ярлыку</t>
+  </si>
+  <si>
+    <t>чья ярлык</t>
+  </si>
+  <si>
+    <t>чей ярлык</t>
+  </si>
+  <si>
+    <t>второй свойство</t>
+  </si>
+  <si>
+    <t>второе свойство</t>
+  </si>
+  <si>
+    <t>данная выполнение</t>
+  </si>
+  <si>
+    <t>данное выполнение</t>
+  </si>
+  <si>
+    <t>более производительна</t>
+  </si>
+  <si>
+    <t>более производительно</t>
+  </si>
+  <si>
+    <t>ни один из его свойств</t>
+  </si>
+  <si>
+    <t>ни одно из его свойств</t>
+  </si>
+  <si>
+    <t>неверный рукопись</t>
+  </si>
+  <si>
+    <t>неверная рукопись</t>
+  </si>
+  <si>
+    <t>необходимую преобразование</t>
+  </si>
+  <si>
+    <t>необходимое преобразование</t>
+  </si>
+  <si>
+    <t>ржавчина понадобилось</t>
+  </si>
+  <si>
+    <t>ржавчине понадобилось</t>
+  </si>
+  <si>
+    <t>программ ржавчина</t>
+  </si>
+  <si>
+    <t>программ ржавчины</t>
+  </si>
+  <si>
+    <t>В встроенной</t>
+  </si>
+  <si>
+    <t>Во встроенной</t>
+  </si>
+  <si>
+    <t>Эта ярлык</t>
+  </si>
+  <si>
+    <t>Этот ярлык</t>
+  </si>
+  <si>
+    <t>добавлен рукопись</t>
+  </si>
+  <si>
+    <t>добавлена рукопись</t>
+  </si>
+  <si>
+    <t>определён второе</t>
+  </si>
+  <si>
+    <t>определено второе</t>
+  </si>
+  <si>
+    <t>допустимым рукописью</t>
+  </si>
+  <si>
+    <t>допустимой рукописью</t>
+  </si>
+  <si>
+    <t>у Ржавчина</t>
+  </si>
+  <si>
+    <t>у Ржавчины</t>
+  </si>
+  <si>
+    <t>приведён рукопись</t>
+  </si>
+  <si>
+    <t>приведена рукопись</t>
+  </si>
+  <si>
+    <t>поведение ржавчина</t>
+  </si>
+  <si>
+    <t>поведение ржавчины</t>
+  </si>
+  <si>
+    <t>исполнения ржавчина</t>
+  </si>
+  <si>
+    <t>исполнения Ржавчины</t>
+  </si>
+  <si>
+    <t>с этой сведениями</t>
+  </si>
+  <si>
+    <t>с этими сведениями</t>
+  </si>
+  <si>
+    <t>правильная преобразование</t>
+  </si>
+  <si>
+    <t>правильное преобразование</t>
+  </si>
+  <si>
+    <t>в выполнения</t>
+  </si>
+  <si>
+    <t>в выполнении</t>
+  </si>
+  <si>
+    <t>вызывающему рукописи</t>
+  </si>
+  <si>
+    <t>вызывающей рукописи</t>
+  </si>
+  <si>
+    <t>определённую ход мыслей</t>
+  </si>
+  <si>
+    <t>определённый ход мыслей</t>
+  </si>
+  <si>
+    <t>ход мыслей, которая</t>
+  </si>
+  <si>
+    <t>ход мыслей, который</t>
+  </si>
+  <si>
+    <t>вся ход мыслей</t>
+  </si>
+  <si>
+    <t>весь ход мыслей</t>
+  </si>
+  <si>
+    <t>ход мыслей, которую</t>
+  </si>
+  <si>
+    <t>Этот дополнение</t>
+  </si>
+  <si>
+    <t>Это дополнение</t>
+  </si>
+  <si>
+    <t>эта руководство</t>
+  </si>
+  <si>
+    <t>это руководство</t>
+  </si>
+  <si>
+    <t>исходный рукопись</t>
+  </si>
+  <si>
+    <t>исходную рукопись</t>
+  </si>
+  <si>
+    <t>обобщим</t>
+  </si>
+  <si>
+    <t>на практике</t>
+  </si>
+  <si>
+    <t>одну действие</t>
+  </si>
+  <si>
+    <t>одно действие</t>
+  </si>
+  <si>
+    <t>в Ржавчина</t>
+  </si>
+  <si>
+    <t>в Ржавчине</t>
+  </si>
+  <si>
+    <t>Эта же концепция</t>
+  </si>
+  <si>
+    <t>Этот же взгляд</t>
+  </si>
+  <si>
+    <t>структурами данных</t>
+  </si>
+  <si>
+    <t>видами данных</t>
+  </si>
+  <si>
+    <t>свою собственную сведения</t>
+  </si>
+  <si>
+    <t>свои собственные сведения</t>
+  </si>
+  <si>
+    <t>небольшой средство</t>
+  </si>
+  <si>
+    <t>небольшое средство</t>
+  </si>
+  <si>
+    <t>преобразованной версии</t>
+  </si>
+  <si>
+    <t>преобразованного исполнения</t>
+  </si>
+  <si>
+    <t>Эта исполнение</t>
+  </si>
+  <si>
+    <t>Это исполнение</t>
+  </si>
+  <si>
+    <t>Весь код</t>
+  </si>
+  <si>
+    <t>Вся рукопись</t>
+  </si>
+  <si>
+    <t>этот код</t>
+  </si>
+  <si>
+    <t>эта рукопись</t>
+  </si>
+  <si>
+    <t>одновременный код</t>
+  </si>
+  <si>
+    <t>одновременная рукопись</t>
+  </si>
+  <si>
+    <t>несогласованного кода</t>
+  </si>
+  <si>
+    <t>несогласованной рукописи</t>
+  </si>
+  <si>
+    <t>в код</t>
+  </si>
+  <si>
+    <t>в рукопись</t>
+  </si>
+  <si>
+    <t>этого кода</t>
+  </si>
+  <si>
+    <t>этой рукописи</t>
+  </si>
+  <si>
+    <t>несогласованный код</t>
+  </si>
+  <si>
+    <t>несогласованная рукопись</t>
+  </si>
+  <si>
+    <t>вашего кода</t>
+  </si>
+  <si>
+    <t>вашей рукописи</t>
+  </si>
+  <si>
+    <t>исходного кода</t>
+  </si>
+  <si>
+    <t>исходной рукописи</t>
+  </si>
+  <si>
+    <t>согласованного кода</t>
+  </si>
+  <si>
+    <t>одновременного кода</t>
+  </si>
+  <si>
+    <t>одновременной рукописи</t>
+  </si>
+  <si>
+    <t>вызывающего кода</t>
+  </si>
+  <si>
+    <t>эта схема</t>
+  </si>
+  <si>
+    <t>этот порядок</t>
+  </si>
+  <si>
+    <t>данный мгновение</t>
+  </si>
+  <si>
+    <t>данное мгновение</t>
+  </si>
+  <si>
+    <t>текущий мгновение</t>
+  </si>
+  <si>
+    <t>текущее мгновение</t>
+  </si>
+  <si>
+    <t>начало строки</t>
+  </si>
+  <si>
+    <t>Правила написания</t>
+  </si>
+  <si>
+    <t>анти</t>
+  </si>
+  <si>
+    <t>противо</t>
+  </si>
+  <si>
+    <t>не везде</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6894,6 +8149,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6922,7 +8184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6949,6 +8211,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7284,10 +8550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB9A67-77EF-4B4B-A409-BADD45AFE303}">
-  <dimension ref="A1:D1269"/>
+  <dimension ref="A1:D1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1049" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1077" sqref="A1077:XFD1077"/>
+    <sheetView topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A604" sqref="A604:XFD608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12321,4447 +13587,4456 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A630" s="6"/>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A630" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B631" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B632" t="s">
-        <v>1192</v>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A633" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B634" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B635" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B636" t="s">
-        <v>1198</v>
+        <v>1211</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="B637" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B638" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="B639" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B640" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="B641" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B642" t="s">
-        <v>1210</v>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A643" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="B644" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="B645" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="B646" t="s">
-        <v>1217</v>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="B648" t="s">
-        <v>1219</v>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="B650" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="B651" t="s">
-        <v>1224</v>
+        <v>335</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="B652" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="B653" t="s">
-        <v>958</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
       <c r="B654" t="s">
-        <v>1229</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="B655" t="s">
-        <v>1231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="B656" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A657" t="s">
-        <v>1233</v>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A657" s="3" t="s">
+        <v>1242</v>
       </c>
       <c r="B657" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="B658" t="s">
-        <v>1236</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="B659" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="B660" t="s">
-        <v>187</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B661" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A662" s="3" t="s">
-        <v>1242</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>1251</v>
       </c>
       <c r="B662" t="s">
-        <v>1243</v>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="B664" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="B665" t="s">
-        <v>1247</v>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
       <c r="B667" t="s">
-        <v>1249</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
       <c r="B668" t="s">
-        <v>56</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="B669" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="B670" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
       <c r="B671" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="B672" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="B673" t="s">
-        <v>1260</v>
+        <v>784</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="B674" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
       <c r="B675" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
       <c r="B676" t="s">
-        <v>1266</v>
+        <v>2011</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
       <c r="B677" t="s">
-        <v>1268</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="B678" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
       <c r="B679" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="B680" t="s">
-        <v>784</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="B681" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="B682" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
       <c r="B683" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A684" t="s">
-        <v>1280</v>
+      <c r="A684" s="7" t="s">
+        <v>1294</v>
       </c>
       <c r="B684" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="B685" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="B686" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="B687" t="s">
-        <v>1287</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="B688" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
       <c r="B689" t="s">
-        <v>1291</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="B690" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A691" s="7" t="s">
-        <v>1294</v>
+      <c r="A691" t="s">
+        <v>1308</v>
       </c>
       <c r="B691" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A692" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1297</v>
+      <c r="A692" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="B693" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="B694" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="B695" t="s">
-        <v>1303</v>
+        <v>1317</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
-        <v>1304</v>
+        <v>1319</v>
       </c>
       <c r="B696" t="s">
-        <v>1305</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
-        <v>1306</v>
+        <v>1321</v>
       </c>
       <c r="B697" t="s">
-        <v>1307</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
-        <v>1308</v>
+        <v>1323</v>
       </c>
       <c r="B698" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A699" s="7" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B699" s="7" t="s">
-        <v>1311</v>
+      <c r="A699" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
-        <v>1312</v>
+        <v>1327</v>
       </c>
       <c r="B700" t="s">
-        <v>1313</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="B701" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="B702" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1318</v>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A703" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
-        <v>1319</v>
+        <v>1334</v>
       </c>
       <c r="B704" t="s">
-        <v>1320</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="B705" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="B706" t="s">
-        <v>1324</v>
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A707" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
-        <v>1325</v>
+        <v>1342</v>
       </c>
       <c r="B708" t="s">
-        <v>1326</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
-        <v>1327</v>
+        <v>1344</v>
       </c>
       <c r="B709" t="s">
-        <v>1103</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
-        <v>1328</v>
+        <v>1346</v>
       </c>
       <c r="B710" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
-        <v>1330</v>
+        <v>1348</v>
       </c>
       <c r="B711" t="s">
-        <v>1331</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
-        <v>1332</v>
+        <v>1350</v>
       </c>
       <c r="B712" t="s">
-        <v>1333</v>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A713" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B713" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
-        <v>1334</v>
+        <v>1353</v>
       </c>
       <c r="B714" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
-        <v>1336</v>
+        <v>1355</v>
       </c>
       <c r="B715" t="s">
-        <v>1337</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
-        <v>1338</v>
+        <v>1357</v>
       </c>
       <c r="B716" t="s">
-        <v>1339</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="B717" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
-        <v>1342</v>
+        <v>1361</v>
       </c>
       <c r="B718" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
-        <v>1344</v>
+        <v>1363</v>
       </c>
       <c r="B719" t="s">
-        <v>1345</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="B720" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="B721" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="B722" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="B723" t="s">
-        <v>981</v>
+        <v>368</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
-        <v>1353</v>
+        <v>1373</v>
       </c>
       <c r="B724" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="B725" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="B726" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="B727" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="B728" t="s">
-        <v>1362</v>
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A729" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="B730" t="s">
-        <v>1364</v>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A731" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="B732" t="s">
-        <v>1367</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
-        <v>1368</v>
+        <v>1390</v>
       </c>
       <c r="B733" t="s">
-        <v>1369</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
-        <v>1370</v>
+        <v>1392</v>
       </c>
       <c r="B734" t="s">
-        <v>1371</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="B735" t="s">
-        <v>368</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
-        <v>1373</v>
+        <v>1394</v>
       </c>
       <c r="B736" t="s">
-        <v>1374</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
-        <v>1375</v>
+        <v>1396</v>
       </c>
       <c r="B737" t="s">
-        <v>1376</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
-        <v>1377</v>
+        <v>1398</v>
       </c>
       <c r="B738" t="s">
-        <v>1378</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
       <c r="B739" t="s">
-        <v>1380</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="B740" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="B741" t="s">
-        <v>1277</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="B742" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
       <c r="B743" t="s">
-        <v>1358</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B744" t="s">
-        <v>1388</v>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A745" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
-        <v>1390</v>
+        <v>1413</v>
       </c>
       <c r="B746" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
-        <v>1392</v>
+        <v>1415</v>
       </c>
       <c r="B747" t="s">
-        <v>1309</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
-        <v>1393</v>
+        <v>1417</v>
       </c>
       <c r="B748" t="s">
-        <v>1311</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
-        <v>1394</v>
+        <v>1419</v>
       </c>
       <c r="B749" t="s">
-        <v>1395</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
-        <v>1396</v>
+        <v>1421</v>
       </c>
       <c r="B750" t="s">
-        <v>1397</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
-        <v>1398</v>
+        <v>1423</v>
       </c>
       <c r="B751" t="s">
-        <v>1399</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
-        <v>1400</v>
+        <v>1425</v>
       </c>
       <c r="B752" t="s">
-        <v>1222</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
-        <v>1401</v>
+        <v>1427</v>
       </c>
       <c r="B753" t="s">
-        <v>1402</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
-        <v>1403</v>
+        <v>1429</v>
       </c>
       <c r="B754" t="s">
-        <v>1404</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
-        <v>1405</v>
+        <v>1431</v>
       </c>
       <c r="B755" t="s">
-        <v>1406</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
-        <v>1407</v>
+        <v>1433</v>
       </c>
       <c r="B756" t="s">
-        <v>1408</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
-        <v>1409</v>
+        <v>1435</v>
       </c>
       <c r="B757" t="s">
-        <v>1410</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
-        <v>1411</v>
+        <v>1437</v>
       </c>
       <c r="B758" t="s">
-        <v>1412</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
-        <v>1413</v>
+        <v>1439</v>
       </c>
       <c r="B759" t="s">
-        <v>1414</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
-        <v>1415</v>
+        <v>1441</v>
       </c>
       <c r="B760" t="s">
-        <v>1416</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
-        <v>1417</v>
+        <v>1443</v>
       </c>
       <c r="B761" t="s">
-        <v>1418</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
-        <v>1419</v>
+        <v>1445</v>
       </c>
       <c r="B762" t="s">
-        <v>1420</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
-        <v>1421</v>
+        <v>1447</v>
       </c>
       <c r="B763" t="s">
-        <v>1422</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
-        <v>1423</v>
+        <v>1449</v>
       </c>
       <c r="B764" t="s">
-        <v>1424</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
-        <v>1425</v>
+        <v>1451</v>
       </c>
       <c r="B765" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
-        <v>1427</v>
+        <v>1453</v>
       </c>
       <c r="B766" t="s">
-        <v>1428</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A767" t="s">
-        <v>1429</v>
+      <c r="A767" s="8" t="s">
+        <v>1455</v>
       </c>
       <c r="B767" t="s">
-        <v>1430</v>
+        <v>573</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A768" t="s">
-        <v>1431</v>
+      <c r="A768" s="8" t="s">
+        <v>1456</v>
       </c>
       <c r="B768" t="s">
-        <v>1432</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
-        <v>1433</v>
+        <v>1458</v>
       </c>
       <c r="B769" t="s">
-        <v>1434</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
-        <v>1435</v>
+        <v>1460</v>
       </c>
       <c r="B770" t="s">
-        <v>1436</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
-        <v>1437</v>
+        <v>1462</v>
       </c>
       <c r="B771" t="s">
-        <v>1438</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
-        <v>1439</v>
+        <v>1464</v>
       </c>
       <c r="B772" t="s">
-        <v>1440</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
-        <v>1441</v>
+        <v>1466</v>
       </c>
       <c r="B773" t="s">
-        <v>1442</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
-        <v>1443</v>
+        <v>1468</v>
       </c>
       <c r="B774" t="s">
-        <v>1444</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
-        <v>1445</v>
+        <v>1470</v>
       </c>
       <c r="B775" t="s">
-        <v>1446</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
-        <v>1447</v>
+        <v>1472</v>
       </c>
       <c r="B776" t="s">
-        <v>1448</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
-        <v>1449</v>
+        <v>1474</v>
       </c>
       <c r="B777" t="s">
-        <v>1450</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
-        <v>1451</v>
+        <v>1476</v>
       </c>
       <c r="B778" t="s">
-        <v>1452</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
-        <v>1453</v>
+        <v>1478</v>
       </c>
       <c r="B779" t="s">
-        <v>1454</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A780" s="8" t="s">
-        <v>1455</v>
+      <c r="A780" t="s">
+        <v>1480</v>
       </c>
       <c r="B780" t="s">
-        <v>573</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A781" s="8" t="s">
-        <v>1456</v>
+      <c r="A781" t="s">
+        <v>1482</v>
       </c>
       <c r="B781" t="s">
-        <v>1457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
-        <v>1458</v>
+        <v>1483</v>
       </c>
       <c r="B782" t="s">
-        <v>1459</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
-        <v>1460</v>
+        <v>1485</v>
       </c>
       <c r="B783" t="s">
-        <v>1461</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
-        <v>1462</v>
+        <v>1487</v>
       </c>
       <c r="B784" t="s">
-        <v>1463</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
-        <v>1464</v>
+        <v>1489</v>
       </c>
       <c r="B785" t="s">
-        <v>1465</v>
+        <v>754</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="B786" t="s">
-        <v>1127</v>
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A787" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A788" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A789" t="s">
-        <v>1468</v>
+      <c r="A789" s="9" t="s">
+        <v>1496</v>
       </c>
       <c r="B789" t="s">
-        <v>1469</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
-        <v>1470</v>
+        <v>1498</v>
       </c>
       <c r="B790" t="s">
-        <v>1471</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
-        <v>1472</v>
+        <v>1500</v>
       </c>
       <c r="B791" t="s">
-        <v>1473</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
-        <v>1474</v>
+        <v>1502</v>
       </c>
       <c r="B792" t="s">
-        <v>1475</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
-        <v>1476</v>
+        <v>1504</v>
       </c>
       <c r="B793" t="s">
-        <v>1477</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
-        <v>1478</v>
+        <v>1506</v>
       </c>
       <c r="B794" t="s">
-        <v>1479</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
-        <v>1480</v>
+        <v>1508</v>
       </c>
       <c r="B795" t="s">
-        <v>1481</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
-        <v>1482</v>
+        <v>1510</v>
       </c>
       <c r="B796" t="s">
-        <v>498</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
-        <v>1483</v>
+        <v>1512</v>
       </c>
       <c r="B797" t="s">
-        <v>1484</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
-        <v>1485</v>
+        <v>1514</v>
       </c>
       <c r="B798" t="s">
-        <v>1486</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
-        <v>1487</v>
+        <v>1516</v>
       </c>
       <c r="B799" t="s">
-        <v>1488</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
-        <v>1489</v>
+        <v>1518</v>
       </c>
       <c r="B800" t="s">
-        <v>754</v>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A801" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
-        <v>1490</v>
+        <v>1522</v>
       </c>
       <c r="B802" t="s">
-        <v>1491</v>
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A803" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
-        <v>1492</v>
+        <v>1526</v>
       </c>
       <c r="B804" t="s">
-        <v>1493</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="B805" t="s">
-        <v>1495</v>
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A806" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A807" s="9" t="s">
-        <v>1496</v>
+      <c r="A807" t="s">
+        <v>1532</v>
       </c>
       <c r="B807" t="s">
-        <v>1497</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
-        <v>1498</v>
+        <v>1533</v>
       </c>
       <c r="B808" t="s">
-        <v>1499</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
-        <v>1500</v>
+        <v>1535</v>
       </c>
       <c r="B809" t="s">
-        <v>1501</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
-        <v>1502</v>
+        <v>1537</v>
       </c>
       <c r="B810" t="s">
-        <v>1503</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
-        <v>1504</v>
+        <v>1539</v>
       </c>
       <c r="B811" t="s">
-        <v>1505</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
-        <v>1506</v>
+        <v>1541</v>
       </c>
       <c r="B812" t="s">
-        <v>1507</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
-        <v>1508</v>
+        <v>1543</v>
       </c>
       <c r="B813" t="s">
-        <v>1509</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
-        <v>1510</v>
+        <v>1545</v>
       </c>
       <c r="B814" t="s">
-        <v>1511</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
-        <v>1512</v>
+        <v>1547</v>
       </c>
       <c r="B815" t="s">
-        <v>1513</v>
+        <v>989</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
-        <v>1514</v>
+        <v>1548</v>
       </c>
       <c r="B816" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="B817" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2250</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
-        <v>1518</v>
+        <v>1552</v>
       </c>
       <c r="B818" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
-        <v>1520</v>
+        <v>1554</v>
       </c>
       <c r="B819" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
-        <v>1522</v>
+        <v>1556</v>
       </c>
       <c r="B820" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
-        <v>1524</v>
+        <v>1559</v>
       </c>
       <c r="B821" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
-        <v>1526</v>
+        <v>1561</v>
       </c>
       <c r="B822" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
-        <v>1528</v>
+        <v>1563</v>
       </c>
       <c r="B823" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
-        <v>1530</v>
+        <v>1565</v>
       </c>
       <c r="B824" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A825" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
-        <v>1532</v>
+        <v>1569</v>
       </c>
       <c r="B826" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
-        <v>1533</v>
+        <v>1571</v>
       </c>
       <c r="B827" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
-        <v>1535</v>
+        <v>1573</v>
       </c>
       <c r="B828" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A829" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
-        <v>1537</v>
+        <v>1577</v>
       </c>
       <c r="B830" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
-        <v>1539</v>
+        <v>1579</v>
       </c>
       <c r="B831" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
-        <v>1541</v>
+        <v>1580</v>
       </c>
       <c r="B832" t="s">
-        <v>1542</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
-        <v>1543</v>
+        <v>1582</v>
       </c>
       <c r="B833" t="s">
-        <v>1544</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
-        <v>1545</v>
+        <v>1584</v>
       </c>
       <c r="B834" t="s">
-        <v>1546</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
-        <v>1547</v>
+        <v>1586</v>
       </c>
       <c r="B835" t="s">
-        <v>989</v>
+        <v>1587</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="B836" t="s">
-        <v>1549</v>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A837" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
-        <v>1550</v>
+        <v>1591</v>
       </c>
       <c r="B838" t="s">
-        <v>2250</v>
-      </c>
-      <c r="C838" t="s">
-        <v>1551</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
-        <v>1552</v>
+        <v>1593</v>
       </c>
       <c r="B839" t="s">
-        <v>1553</v>
+        <v>748</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
-        <v>1554</v>
+        <v>1594</v>
       </c>
       <c r="B840" t="s">
-        <v>1555</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
-        <v>1556</v>
+        <v>1596</v>
       </c>
       <c r="B841" t="s">
-        <v>1557</v>
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A842" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
-        <v>1559</v>
+        <v>1600</v>
       </c>
       <c r="B843" t="s">
-        <v>1560</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
-        <v>1561</v>
+        <v>1602</v>
       </c>
       <c r="B844" t="s">
-        <v>1562</v>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A845" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
-        <v>1563</v>
+        <v>1605</v>
       </c>
       <c r="B846" t="s">
-        <v>1564</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
-        <v>1565</v>
+        <v>1607</v>
       </c>
       <c r="B847" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
-        <v>1567</v>
+        <v>1609</v>
       </c>
       <c r="B848" t="s">
-        <v>1568</v>
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A849" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B849" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A850" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A851" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
-        <v>1569</v>
+        <v>1615</v>
       </c>
       <c r="B852" t="s">
-        <v>1570</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
-        <v>1571</v>
+        <v>1617</v>
       </c>
       <c r="B853" t="s">
-        <v>1572</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
-        <v>1573</v>
+        <v>1619</v>
       </c>
       <c r="B854" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A855" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1576</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
-        <v>1577</v>
+        <v>1621</v>
       </c>
       <c r="B856" t="s">
-        <v>1578</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="B857" t="s">
-        <v>735</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
-        <v>1580</v>
+        <v>1171</v>
       </c>
       <c r="B858" t="s">
-        <v>1581</v>
+        <v>1625</v>
+      </c>
+      <c r="C858" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
-        <v>1582</v>
+        <v>1626</v>
       </c>
       <c r="B859" t="s">
-        <v>1583</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
-        <v>1584</v>
+        <v>1628</v>
       </c>
       <c r="B860" t="s">
-        <v>1585</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
-        <v>1586</v>
+        <v>1630</v>
       </c>
       <c r="B861" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C861" t="s">
-        <v>1931</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
-        <v>1588</v>
+        <v>1632</v>
       </c>
       <c r="B862" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A863" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1277</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
-        <v>1591</v>
+        <v>1635</v>
       </c>
       <c r="B864" t="s">
-        <v>1592</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
-        <v>1593</v>
+        <v>1637</v>
       </c>
       <c r="B865" t="s">
-        <v>748</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
-        <v>1594</v>
+        <v>1639</v>
       </c>
       <c r="B866" t="s">
-        <v>1595</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
-        <v>1596</v>
+        <v>1641</v>
       </c>
       <c r="B867" t="s">
-        <v>1597</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
-        <v>1598</v>
+        <v>1643</v>
       </c>
       <c r="B868" t="s">
-        <v>1599</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
-        <v>1600</v>
+        <v>1645</v>
       </c>
       <c r="B869" t="s">
-        <v>1601</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
-        <v>1602</v>
+        <v>1647</v>
       </c>
       <c r="B870" t="s">
-        <v>1603</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
-        <v>1604</v>
+        <v>1649</v>
       </c>
       <c r="B871" t="s">
-        <v>1599</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
-        <v>1605</v>
+        <v>1651</v>
       </c>
       <c r="B872" t="s">
-        <v>1606</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
-        <v>1607</v>
+        <v>1653</v>
       </c>
       <c r="B873" t="s">
-        <v>1608</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
-        <v>1609</v>
+        <v>1655</v>
       </c>
       <c r="B874" t="s">
-        <v>1557</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
-        <v>1610</v>
+        <v>1657</v>
       </c>
       <c r="B875" t="s">
-        <v>422</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
-        <v>1611</v>
+        <v>1659</v>
       </c>
       <c r="B876" t="s">
-        <v>1612</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
-        <v>1613</v>
+        <v>1661</v>
       </c>
       <c r="B877" t="s">
-        <v>1614</v>
+        <v>223</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
-        <v>1615</v>
+        <v>1662</v>
       </c>
       <c r="B878" t="s">
-        <v>1616</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
-        <v>1617</v>
+        <v>1664</v>
       </c>
       <c r="B879" t="s">
-        <v>1618</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
-        <v>1619</v>
+        <v>1666</v>
       </c>
       <c r="B880" t="s">
-        <v>1620</v>
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A881" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
-        <v>1621</v>
+        <v>1669</v>
       </c>
       <c r="B882" t="s">
-        <v>1622</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
-        <v>1623</v>
+        <v>1671</v>
       </c>
       <c r="B883" t="s">
-        <v>1624</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
-        <v>1171</v>
+        <v>1673</v>
       </c>
       <c r="B884" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C884" t="s">
-        <v>93</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
-        <v>1626</v>
+        <v>1674</v>
       </c>
       <c r="B885" t="s">
-        <v>1627</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
-        <v>1628</v>
+        <v>107</v>
       </c>
       <c r="B886" t="s">
-        <v>1629</v>
+        <v>1676</v>
+      </c>
+      <c r="C886" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
-        <v>1630</v>
+        <v>1677</v>
       </c>
       <c r="B887" t="s">
-        <v>1631</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
-        <v>1632</v>
+        <v>1679</v>
       </c>
       <c r="B888" t="s">
-        <v>1633</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="B890" t="s">
-        <v>1636</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
-        <v>1637</v>
+        <v>1683</v>
       </c>
       <c r="B891" t="s">
-        <v>1638</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
-        <v>1639</v>
+        <v>1685</v>
       </c>
       <c r="B892" t="s">
-        <v>1640</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
-        <v>1641</v>
+        <v>1687</v>
       </c>
       <c r="B893" t="s">
-        <v>1642</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
-        <v>1643</v>
+        <v>1689</v>
       </c>
       <c r="B894" t="s">
-        <v>1644</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
-        <v>1645</v>
+        <v>1691</v>
       </c>
       <c r="B895" t="s">
-        <v>1646</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A896" t="s">
-        <v>1647</v>
+        <v>1693</v>
       </c>
       <c r="B896" t="s">
-        <v>1648</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
-        <v>1649</v>
+        <v>1695</v>
       </c>
       <c r="B897" t="s">
-        <v>1650</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
-        <v>1651</v>
+        <v>1697</v>
       </c>
       <c r="B898" t="s">
-        <v>1652</v>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A899" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
-        <v>1653</v>
+        <v>1701</v>
       </c>
       <c r="B900" t="s">
-        <v>1654</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
-        <v>1655</v>
+        <v>1703</v>
       </c>
       <c r="B901" t="s">
-        <v>1656</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
-        <v>1657</v>
+        <v>1705</v>
       </c>
       <c r="B902" t="s">
-        <v>1658</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
-        <v>1659</v>
+        <v>1706</v>
       </c>
       <c r="B903" t="s">
-        <v>1660</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
-        <v>1661</v>
+        <v>1708</v>
       </c>
       <c r="B904" t="s">
-        <v>223</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A905" t="s">
-        <v>1662</v>
+        <v>1710</v>
       </c>
       <c r="B905" t="s">
-        <v>1663</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A906" t="s">
-        <v>1664</v>
+        <v>1712</v>
       </c>
       <c r="B906" t="s">
-        <v>1665</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A907" t="s">
-        <v>1666</v>
+        <v>1714</v>
       </c>
       <c r="B907" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A908" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B908" t="s">
-        <v>1668</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909" t="s">
-        <v>1669</v>
+        <v>1716</v>
       </c>
       <c r="B909" t="s">
-        <v>1670</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
-        <v>1671</v>
+        <v>1718</v>
       </c>
       <c r="B910" t="s">
-        <v>1672</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
-        <v>1673</v>
+        <v>1720</v>
       </c>
       <c r="B911" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A912" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
-        <v>1674</v>
+        <v>1724</v>
       </c>
       <c r="B913" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A914" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
-        <v>107</v>
+        <v>1727</v>
       </c>
       <c r="B915" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C915" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
-        <v>1677</v>
+        <v>1730</v>
       </c>
       <c r="B916" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A917" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
-        <v>1679</v>
+        <v>1734</v>
       </c>
       <c r="B918" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A919" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B919" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
-        <v>1681</v>
+        <v>1737</v>
       </c>
       <c r="B920" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A921" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922" t="s">
-        <v>1683</v>
+        <v>1741</v>
       </c>
       <c r="B922" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
-        <v>1685</v>
+        <v>1743</v>
       </c>
       <c r="B923" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
-        <v>1687</v>
+        <v>1744</v>
       </c>
       <c r="B924" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
-        <v>1689</v>
+        <v>1745</v>
       </c>
       <c r="B925" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A926" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A927" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
-        <v>1691</v>
+        <v>1750</v>
       </c>
       <c r="B928" t="s">
-        <v>1692</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
-        <v>1693</v>
+        <v>1751</v>
       </c>
       <c r="B929" t="s">
-        <v>1694</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
-        <v>1695</v>
+        <v>1753</v>
       </c>
       <c r="B930" t="s">
-        <v>1696</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
-        <v>1697</v>
+        <v>1755</v>
       </c>
       <c r="B931" t="s">
-        <v>1698</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
-        <v>1699</v>
+        <v>1757</v>
       </c>
       <c r="B932" t="s">
-        <v>1700</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
-        <v>1701</v>
+        <v>1759</v>
       </c>
       <c r="B933" t="s">
-        <v>1702</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
-        <v>1703</v>
+        <v>1760</v>
       </c>
       <c r="B934" t="s">
-        <v>1704</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A935" t="s">
-        <v>1705</v>
+        <v>1762</v>
       </c>
       <c r="B935" t="s">
-        <v>1219</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A936" t="s">
-        <v>1706</v>
+        <v>1764</v>
       </c>
       <c r="B936" t="s">
-        <v>1707</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A937" t="s">
-        <v>1708</v>
+        <v>1765</v>
       </c>
       <c r="B937" t="s">
-        <v>1709</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
-        <v>1710</v>
+        <v>1767</v>
       </c>
       <c r="B938" t="s">
-        <v>1711</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
-        <v>1712</v>
+        <v>1769</v>
       </c>
       <c r="B939" t="s">
-        <v>1713</v>
+        <v>560</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
-        <v>1714</v>
+        <v>1770</v>
       </c>
       <c r="B940" t="s">
-        <v>1715</v>
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A941" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A942" t="s">
-        <v>1716</v>
+        <v>1774</v>
       </c>
       <c r="B942" t="s">
-        <v>1717</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A943" t="s">
-        <v>1718</v>
+        <v>1776</v>
       </c>
       <c r="B943" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A944" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B944" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A945" t="s">
-        <v>1722</v>
+        <v>1778</v>
       </c>
       <c r="B945" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A946" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A947" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C947" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A948" t="s">
-        <v>1724</v>
+        <v>1783</v>
       </c>
       <c r="B948" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2247</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A950" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
-        <v>1726</v>
+        <v>1787</v>
       </c>
       <c r="B951" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A952" t="s">
-        <v>1727</v>
+        <v>1789</v>
       </c>
       <c r="B952" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A953" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A954" t="s">
-        <v>1730</v>
+        <v>1793</v>
       </c>
       <c r="B954" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.45">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A955" t="s">
-        <v>1732</v>
+        <v>1794</v>
       </c>
       <c r="B955" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A956" t="s">
-        <v>1734</v>
+        <v>1796</v>
       </c>
       <c r="B956" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A957" t="s">
-        <v>1736</v>
+        <v>1798</v>
       </c>
       <c r="B957" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A958" t="s">
-        <v>1737</v>
+        <v>1800</v>
       </c>
       <c r="B958" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A959" t="s">
-        <v>1739</v>
+        <v>1802</v>
       </c>
       <c r="B959" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A960" t="s">
-        <v>1741</v>
+        <v>1804</v>
       </c>
       <c r="B960" t="s">
-        <v>1742</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A961" t="s">
-        <v>1743</v>
+        <v>1806</v>
       </c>
       <c r="B961" t="s">
-        <v>1454</v>
+        <v>335</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A962" t="s">
-        <v>1744</v>
+        <v>1807</v>
       </c>
       <c r="B962" t="s">
-        <v>2230</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A963" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B963" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A964" t="s">
-        <v>1745</v>
+        <v>1809</v>
       </c>
       <c r="B964" t="s">
-        <v>1746</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A965" t="s">
-        <v>1747</v>
+        <v>1811</v>
       </c>
       <c r="B965" t="s">
-        <v>1748</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A966" t="s">
-        <v>1749</v>
+        <v>1813</v>
       </c>
       <c r="B966" t="s">
-        <v>1499</v>
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A967" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A968" t="s">
-        <v>1750</v>
+        <v>1817</v>
       </c>
       <c r="B968" t="s">
-        <v>1484</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A969" t="s">
-        <v>1751</v>
+        <v>1820</v>
       </c>
       <c r="B969" t="s">
-        <v>1752</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A970" t="s">
-        <v>1753</v>
+        <v>1822</v>
       </c>
       <c r="B970" t="s">
-        <v>1754</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A971" t="s">
-        <v>1755</v>
+        <v>1824</v>
       </c>
       <c r="B971" t="s">
-        <v>1756</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A972" t="s">
-        <v>1757</v>
+        <v>1826</v>
       </c>
       <c r="B972" t="s">
-        <v>1758</v>
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A973" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A974" t="s">
-        <v>1759</v>
+        <v>1830</v>
       </c>
       <c r="B974" t="s">
-        <v>2229</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A975" t="s">
-        <v>1760</v>
+        <v>1833</v>
       </c>
       <c r="B975" t="s">
-        <v>1761</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A976" t="s">
-        <v>1762</v>
+        <v>1835</v>
       </c>
       <c r="B976" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A977" t="s">
-        <v>1764</v>
+        <v>1837</v>
       </c>
       <c r="B977" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A978" t="s">
-        <v>1765</v>
+        <v>1839</v>
       </c>
       <c r="B978" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A979" t="s">
-        <v>1767</v>
+        <v>1842</v>
       </c>
       <c r="B979" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A980" t="s">
-        <v>1769</v>
+        <v>1844</v>
       </c>
       <c r="B980" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A981" t="s">
-        <v>1770</v>
+        <v>1846</v>
       </c>
       <c r="B981" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A982" t="s">
-        <v>1772</v>
+        <v>1848</v>
       </c>
       <c r="B982" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A983" t="s">
-        <v>1774</v>
+        <v>1850</v>
       </c>
       <c r="B983" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A984" t="s">
-        <v>1776</v>
+        <v>1852</v>
       </c>
       <c r="B984" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A985" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A986" t="s">
-        <v>1778</v>
+        <v>1855</v>
       </c>
       <c r="B986" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A987" t="s">
-        <v>1780</v>
+        <v>1857</v>
       </c>
       <c r="B987" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A989" s="3"/>
-    </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A988" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A989" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A990" t="s">
-        <v>1782</v>
+        <v>1863</v>
       </c>
       <c r="B990" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C990" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A991" t="s">
-        <v>1783</v>
+        <v>1865</v>
       </c>
       <c r="B991" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C991" t="s">
-        <v>1784</v>
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A992" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A993" t="s">
-        <v>1785</v>
+        <v>1869</v>
       </c>
       <c r="B993" t="s">
-        <v>1786</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A994" t="s">
-        <v>1787</v>
+        <v>1871</v>
       </c>
       <c r="B994" t="s">
-        <v>1788</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A995" t="s">
-        <v>1789</v>
+        <v>1872</v>
       </c>
       <c r="B995" t="s">
-        <v>1790</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A996" t="s">
-        <v>1791</v>
+        <v>1874</v>
       </c>
       <c r="B996" t="s">
-        <v>1792</v>
+        <v>223</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A997" t="s">
-        <v>1793</v>
+        <v>1875</v>
       </c>
       <c r="B997" t="s">
-        <v>613</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
-        <v>1794</v>
+        <v>1877</v>
       </c>
       <c r="B998" t="s">
-        <v>1795</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A999" t="s">
-        <v>1796</v>
+        <v>1879</v>
       </c>
       <c r="B999" t="s">
-        <v>1797</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1000" t="s">
-        <v>1798</v>
+        <v>1881</v>
       </c>
       <c r="B1000" t="s">
-        <v>1799</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1001" t="s">
-        <v>1800</v>
+        <v>1882</v>
       </c>
       <c r="B1001" t="s">
-        <v>1801</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1002" t="s">
-        <v>1802</v>
+        <v>1884</v>
       </c>
       <c r="B1002" t="s">
-        <v>1803</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1003" t="s">
-        <v>1804</v>
+        <v>1886</v>
       </c>
       <c r="B1003" t="s">
-        <v>1805</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1004" t="s">
-        <v>1806</v>
+        <v>1888</v>
       </c>
       <c r="B1004" t="s">
-        <v>335</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1005" t="s">
-        <v>1807</v>
+        <v>1890</v>
       </c>
       <c r="B1005" t="s">
-        <v>486</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1006" t="s">
-        <v>1808</v>
+        <v>1892</v>
       </c>
       <c r="B1006" t="s">
-        <v>144</v>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1007" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1008" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1009" t="s">
-        <v>1809</v>
+        <v>1898</v>
       </c>
       <c r="B1009" t="s">
-        <v>1810</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1010" t="s">
-        <v>1811</v>
+        <v>1899</v>
       </c>
       <c r="B1010" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1011" t="s">
-        <v>1813</v>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1011" s="10" t="s">
+        <v>1901</v>
       </c>
       <c r="B1011" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1012" t="s">
-        <v>1815</v>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1012" s="10" t="s">
+        <v>1904</v>
       </c>
       <c r="B1012" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1013" t="s">
-        <v>1817</v>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1013" s="10" t="s">
+        <v>1906</v>
       </c>
       <c r="B1013" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1015" t="s">
-        <v>1820</v>
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1014" s="10" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1015" s="10" t="s">
+        <v>1910</v>
       </c>
       <c r="B1015" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1016" t="s">
-        <v>1822</v>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1016" s="10" t="s">
+        <v>1912</v>
       </c>
       <c r="B1016" t="s">
-        <v>1823</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1017" t="s">
-        <v>1824</v>
+        <v>1914</v>
       </c>
       <c r="B1017" t="s">
-        <v>1825</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1018" t="s">
-        <v>1826</v>
+        <v>1916</v>
       </c>
       <c r="B1018" t="s">
-        <v>1827</v>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1019" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1020" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2289</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1021" t="s">
-        <v>1828</v>
+        <v>1921</v>
       </c>
       <c r="B1021" t="s">
-        <v>1829</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1022" t="s">
-        <v>1830</v>
+        <v>1924</v>
       </c>
       <c r="B1022" t="s">
         <v>1831</v>
       </c>
     </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1023" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1926</v>
+      </c>
+    </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1024" t="s">
-        <v>1833</v>
+        <v>1927</v>
       </c>
       <c r="B1024" t="s">
-        <v>1834</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1025" t="s">
-        <v>1835</v>
+        <v>1929</v>
       </c>
       <c r="B1025" t="s">
-        <v>1836</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1026" t="s">
-        <v>1837</v>
+        <v>1933</v>
       </c>
       <c r="B1026" t="s">
-        <v>1838</v>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1027" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1028" t="s">
-        <v>1839</v>
+        <v>1937</v>
       </c>
       <c r="B1028" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1029" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1030" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1943</v>
+      </c>
+    </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1031" t="s">
-        <v>1842</v>
+        <v>1944</v>
       </c>
       <c r="B1031" t="s">
-        <v>1843</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1032" t="s">
-        <v>1844</v>
+        <v>1946</v>
       </c>
       <c r="B1032" t="s">
-        <v>1845</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1033" t="s">
-        <v>1846</v>
+        <v>1948</v>
       </c>
       <c r="B1033" t="s">
-        <v>1847</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1034" t="s">
-        <v>1848</v>
+        <v>1950</v>
       </c>
       <c r="B1034" t="s">
-        <v>1849</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1035" t="s">
-        <v>1850</v>
+        <v>1952</v>
       </c>
       <c r="B1035" t="s">
-        <v>1851</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1036" t="s">
-        <v>1852</v>
+        <v>1954</v>
       </c>
       <c r="B1036" t="s">
-        <v>1805</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1037" t="s">
-        <v>1853</v>
+        <v>1956</v>
       </c>
       <c r="B1037" t="s">
-        <v>1854</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1038" t="s">
-        <v>1855</v>
+        <v>1957</v>
       </c>
       <c r="B1038" t="s">
-        <v>1856</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1039" t="s">
-        <v>1857</v>
+        <v>1959</v>
       </c>
       <c r="B1039" t="s">
-        <v>1858</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1040" t="s">
-        <v>1859</v>
+        <v>1961</v>
       </c>
       <c r="B1040" t="s">
-        <v>1860</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1041" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="B1041" t="s">
-        <v>1862</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1042" t="s">
-        <v>1863</v>
+        <v>1965</v>
       </c>
       <c r="B1042" t="s">
-        <v>1864</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1043" t="s">
-        <v>1865</v>
+        <v>1967</v>
       </c>
       <c r="B1043" t="s">
-        <v>1866</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1044" t="s">
-        <v>1867</v>
+        <v>1969</v>
       </c>
       <c r="B1044" t="s">
-        <v>1868</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1045" t="s">
-        <v>1869</v>
+        <v>1970</v>
       </c>
       <c r="B1045" t="s">
-        <v>1870</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1046" t="s">
-        <v>1871</v>
+        <v>1972</v>
       </c>
       <c r="B1046" t="s">
-        <v>1805</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1047" t="s">
-        <v>1872</v>
+        <v>1974</v>
       </c>
       <c r="B1047" t="s">
-        <v>1873</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1048" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1049" t="s">
-        <v>1874</v>
+        <v>1977</v>
       </c>
       <c r="B1049" t="s">
-        <v>223</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1050" t="s">
-        <v>1875</v>
+        <v>1979</v>
       </c>
       <c r="B1050" t="s">
-        <v>1876</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1051" t="s">
-        <v>1877</v>
+        <v>1980</v>
       </c>
       <c r="B1051" t="s">
-        <v>1878</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1052" t="s">
-        <v>1879</v>
+        <v>1982</v>
       </c>
       <c r="B1052" t="s">
-        <v>1880</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1053" t="s">
-        <v>1881</v>
+        <v>1984</v>
       </c>
       <c r="B1053" t="s">
-        <v>249</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1054" t="s">
-        <v>1882</v>
+        <v>1986</v>
       </c>
       <c r="B1054" t="s">
-        <v>1883</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1055" t="s">
-        <v>1884</v>
+        <v>1988</v>
       </c>
       <c r="B1055" t="s">
-        <v>1885</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1056" t="s">
-        <v>1886</v>
+        <v>1990</v>
       </c>
       <c r="B1056" t="s">
-        <v>1887</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1057" t="s">
-        <v>1888</v>
+        <v>1991</v>
       </c>
       <c r="B1057" t="s">
-        <v>1889</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1058" t="s">
-        <v>1890</v>
+        <v>1993</v>
       </c>
       <c r="B1058" t="s">
-        <v>1891</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1059" t="s">
-        <v>1892</v>
+        <v>1995</v>
       </c>
       <c r="B1059" t="s">
-        <v>1893</v>
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1060" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1061" t="s">
-        <v>1894</v>
+        <v>1998</v>
       </c>
       <c r="B1061" t="s">
-        <v>1895</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1062" t="s">
-        <v>1896</v>
+        <v>2000</v>
       </c>
       <c r="B1062" t="s">
-        <v>1897</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1063" t="s">
-        <v>1898</v>
+        <v>2002</v>
       </c>
       <c r="B1063" t="s">
-        <v>1636</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1064" t="s">
-        <v>1899</v>
+        <v>2004</v>
       </c>
       <c r="B1064" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1065" s="10" t="s">
-        <v>1901</v>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1065" t="s">
+        <v>2006</v>
       </c>
       <c r="B1065" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1067" s="10" t="s">
-        <v>1904</v>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1066" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1067" t="s">
+        <v>2009</v>
       </c>
       <c r="B1067" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1068" s="10" t="s">
-        <v>1906</v>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1068" t="s">
+        <v>2012</v>
       </c>
       <c r="B1068" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1069" s="10" t="s">
-        <v>1908</v>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1069" t="s">
+        <v>2014</v>
       </c>
       <c r="B1069" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1070" s="10" t="s">
-        <v>1910</v>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1070" t="s">
+        <v>2016</v>
       </c>
       <c r="B1070" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1071" s="10" t="s">
-        <v>1912</v>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1071" t="s">
+        <v>2018</v>
       </c>
       <c r="B1071" t="s">
-        <v>1913</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1072" t="s">
-        <v>1914</v>
+        <v>2020</v>
       </c>
       <c r="B1072" t="s">
-        <v>1915</v>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1073" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1074" t="s">
-        <v>1916</v>
+        <v>2024</v>
       </c>
       <c r="B1074" t="s">
-        <v>1917</v>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1075" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2028</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1076" t="s">
-        <v>1919</v>
+        <v>2029</v>
       </c>
       <c r="B1076" t="s">
-        <v>1920</v>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1077" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1078" t="s">
-        <v>1921</v>
+        <v>2033</v>
       </c>
       <c r="B1078" t="s">
-        <v>1922</v>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1079" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1080" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1081" t="s">
-        <v>1924</v>
+        <v>2038</v>
       </c>
       <c r="B1081" t="s">
-        <v>1831</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1082" t="s">
-        <v>1925</v>
+        <v>2039</v>
       </c>
       <c r="B1082" t="s">
-        <v>1926</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1083" t="s">
-        <v>1927</v>
+        <v>2008</v>
       </c>
       <c r="B1083" t="s">
-        <v>1928</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1084" t="s">
-        <v>1929</v>
+        <v>2041</v>
       </c>
       <c r="B1084" t="s">
-        <v>1930</v>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1085" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1086" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2044</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1087" t="s">
-        <v>1933</v>
+        <v>2045</v>
       </c>
       <c r="B1087" t="s">
-        <v>1934</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1088" t="s">
-        <v>1935</v>
+        <v>2047</v>
       </c>
       <c r="B1088" t="s">
-        <v>1936</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1089" t="s">
-        <v>1937</v>
+        <v>2049</v>
       </c>
       <c r="B1089" t="s">
-        <v>1938</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1090" t="s">
-        <v>1939</v>
+        <v>2051</v>
       </c>
       <c r="B1090" t="s">
-        <v>1940</v>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1091" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2054</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1092" t="s">
-        <v>1942</v>
+        <v>2055</v>
       </c>
       <c r="B1092" t="s">
-        <v>1943</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1093" t="s">
-        <v>1944</v>
+        <v>2057</v>
       </c>
       <c r="B1093" t="s">
-        <v>1945</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1094" t="s">
-        <v>1946</v>
+        <v>2059</v>
       </c>
       <c r="B1094" t="s">
-        <v>1947</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1095" t="s">
-        <v>1948</v>
+        <v>2061</v>
       </c>
       <c r="B1095" t="s">
-        <v>1949</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1096" t="s">
-        <v>1950</v>
+        <v>2063</v>
       </c>
       <c r="B1096" t="s">
-        <v>1951</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1097" t="s">
-        <v>1952</v>
+        <v>2065</v>
       </c>
       <c r="B1097" t="s">
-        <v>1953</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1098" t="s">
-        <v>1954</v>
+        <v>2067</v>
       </c>
       <c r="B1098" t="s">
-        <v>1955</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1099" t="s">
-        <v>1956</v>
+        <v>2069</v>
       </c>
       <c r="B1099" t="s">
-        <v>1812</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1100" t="s">
-        <v>1957</v>
+        <v>2071</v>
       </c>
       <c r="B1100" t="s">
-        <v>1958</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1101" t="s">
-        <v>1959</v>
+        <v>2072</v>
       </c>
       <c r="B1101" t="s">
-        <v>1960</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1102" t="s">
-        <v>1961</v>
+        <v>2074</v>
       </c>
       <c r="B1102" t="s">
-        <v>1962</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1103" t="s">
-        <v>1963</v>
+        <v>2076</v>
       </c>
       <c r="B1103" t="s">
-        <v>1964</v>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1104" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1105" t="s">
-        <v>1965</v>
+      <c r="A1105" s="11" t="s">
+        <v>2079</v>
       </c>
       <c r="B1105" t="s">
-        <v>1966</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1106" t="s">
-        <v>1967</v>
+        <v>2080</v>
       </c>
       <c r="B1106" t="s">
-        <v>1968</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1107" t="s">
-        <v>1969</v>
+        <v>2082</v>
       </c>
       <c r="B1107" t="s">
-        <v>1277</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1108" t="s">
-        <v>1970</v>
+        <v>2084</v>
       </c>
       <c r="B1108" t="s">
-        <v>1971</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1109" t="s">
-        <v>1972</v>
+        <v>2086</v>
       </c>
       <c r="B1109" t="s">
-        <v>1973</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1110" t="s">
-        <v>1974</v>
+        <v>2087</v>
       </c>
       <c r="B1110" t="s">
-        <v>569</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1111" t="s">
-        <v>1975</v>
+        <v>2089</v>
       </c>
       <c r="B1111" t="s">
-        <v>1976</v>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1112" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1113" t="s">
-        <v>1977</v>
+        <v>2094</v>
       </c>
       <c r="B1113" t="s">
-        <v>1978</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1114" t="s">
-        <v>1979</v>
+        <v>2096</v>
       </c>
       <c r="B1114" t="s">
-        <v>682</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1115" t="s">
-        <v>1980</v>
+        <v>2097</v>
       </c>
       <c r="B1115" t="s">
-        <v>1981</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1116" t="s">
-        <v>1982</v>
+        <v>2099</v>
       </c>
       <c r="B1116" t="s">
-        <v>1983</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1117" t="s">
-        <v>1984</v>
+        <v>1941</v>
       </c>
       <c r="B1117" t="s">
-        <v>1985</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1118" t="s">
-        <v>1986</v>
+        <v>2102</v>
       </c>
       <c r="B1118" t="s">
-        <v>1987</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1119" t="s">
-        <v>1988</v>
+        <v>2104</v>
       </c>
       <c r="B1119" t="s">
-        <v>1989</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1120" t="s">
-        <v>1990</v>
+        <v>2106</v>
       </c>
       <c r="B1120" t="s">
-        <v>1484</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1121" t="s">
-        <v>1991</v>
+        <v>2108</v>
       </c>
       <c r="B1121" t="s">
-        <v>1992</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1122" t="s">
-        <v>1993</v>
+        <v>2110</v>
       </c>
       <c r="B1122" t="s">
-        <v>1994</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1123" t="s">
-        <v>1995</v>
+        <v>2112</v>
       </c>
       <c r="B1123" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1124" t="s">
-        <v>1996</v>
+        <v>2113</v>
       </c>
       <c r="B1124" t="s">
-        <v>1997</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1125" t="s">
-        <v>1998</v>
+        <v>2115</v>
       </c>
       <c r="B1125" t="s">
-        <v>1999</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1126" t="s">
-        <v>2000</v>
+        <v>2117</v>
       </c>
       <c r="B1126" t="s">
-        <v>1234</v>
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1127" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1128" t="s">
-        <v>2002</v>
+        <v>2121</v>
       </c>
       <c r="B1128" t="s">
-        <v>2003</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1129" t="s">
-        <v>2004</v>
+      <c r="A1129" s="11" t="s">
+        <v>2123</v>
       </c>
       <c r="B1129" t="s">
-        <v>2005</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1130" t="s">
-        <v>2006</v>
+        <v>2125</v>
       </c>
       <c r="B1130" t="s">
-        <v>940</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1131" t="s">
-        <v>2007</v>
+        <v>2126</v>
       </c>
       <c r="B1131" t="s">
-        <v>545</v>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1132" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1133" t="s">
-        <v>2009</v>
+        <v>2129</v>
       </c>
       <c r="B1133" t="s">
-        <v>2010</v>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1134" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1135" t="s">
-        <v>2012</v>
+        <v>2133</v>
       </c>
       <c r="B1135" t="s">
-        <v>2013</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1136" t="s">
-        <v>2014</v>
+        <v>2135</v>
       </c>
       <c r="B1136" t="s">
-        <v>2015</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1137" t="s">
-        <v>2016</v>
+        <v>2137</v>
       </c>
       <c r="B1137" t="s">
-        <v>2017</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1138" t="s">
-        <v>2018</v>
+        <v>2139</v>
       </c>
       <c r="B1138" t="s">
-        <v>2019</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1139" t="s">
-        <v>2020</v>
+        <v>2142</v>
       </c>
       <c r="B1139" t="s">
-        <v>2021</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1140" t="s">
-        <v>2022</v>
+        <v>2144</v>
       </c>
       <c r="B1140" t="s">
-        <v>2023</v>
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1141" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1142" t="s">
-        <v>2024</v>
+        <v>2148</v>
       </c>
       <c r="B1142" t="s">
-        <v>2025</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1143" t="s">
-        <v>2027</v>
+        <v>2150</v>
       </c>
       <c r="B1143" t="s">
-        <v>2028</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1144" t="s">
-        <v>2029</v>
+        <v>2152</v>
       </c>
       <c r="B1144" t="s">
-        <v>2030</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1145" t="s">
-        <v>2031</v>
+        <v>2154</v>
       </c>
       <c r="B1145" t="s">
-        <v>2032</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1146" t="s">
-        <v>2033</v>
+        <v>2156</v>
       </c>
       <c r="B1146" t="s">
-        <v>2034</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1147" t="s">
-        <v>2035</v>
+        <v>2158</v>
       </c>
       <c r="B1147" t="s">
-        <v>2036</v>
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1148" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1149" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1150" t="s">
-        <v>2037</v>
+        <v>2162</v>
       </c>
       <c r="B1150" t="s">
-        <v>1862</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1151" t="s">
-        <v>2038</v>
+        <v>2164</v>
       </c>
       <c r="B1151" t="s">
-        <v>93</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1152" t="s">
-        <v>2039</v>
+        <v>2167</v>
       </c>
       <c r="B1152" t="s">
-        <v>2040</v>
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1153" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1154" t="s">
-        <v>2008</v>
+        <v>2171</v>
       </c>
       <c r="B1154" t="s">
-        <v>1805</v>
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1155" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2174</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1156" t="s">
-        <v>2041</v>
+        <v>2175</v>
       </c>
       <c r="B1156" t="s">
-        <v>2034</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1157" t="s">
-        <v>2042</v>
+        <v>2177</v>
       </c>
       <c r="B1157" t="s">
-        <v>93</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1158" t="s">
-        <v>2043</v>
+        <v>2179</v>
       </c>
       <c r="B1158" t="s">
-        <v>2044</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1159" t="s">
-        <v>2045</v>
+        <v>2180</v>
       </c>
       <c r="B1159" t="s">
-        <v>2046</v>
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1160" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1161" t="s">
-        <v>2047</v>
+        <v>2184</v>
       </c>
       <c r="B1161" t="s">
-        <v>2048</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1162" t="s">
-        <v>2049</v>
+        <v>2186</v>
       </c>
       <c r="B1162" t="s">
-        <v>2050</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1163" t="s">
-        <v>2051</v>
+      <c r="A1163" s="12" t="s">
+        <v>2189</v>
       </c>
       <c r="B1163" t="s">
-        <v>2052</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1164" t="s">
-        <v>2053</v>
+        <v>2190</v>
       </c>
       <c r="B1164" t="s">
-        <v>2054</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1165" t="s">
-        <v>2055</v>
+        <v>2192</v>
       </c>
       <c r="B1165" t="s">
-        <v>2056</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1166" t="s">
-        <v>2057</v>
+        <v>2194</v>
       </c>
       <c r="B1166" t="s">
-        <v>2058</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1167" t="s">
-        <v>2059</v>
+        <v>2196</v>
       </c>
       <c r="B1167" t="s">
-        <v>2060</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1168" t="s">
-        <v>2061</v>
+        <v>2198</v>
       </c>
       <c r="B1168" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1169" t="s">
-        <v>2063</v>
+        <v>2200</v>
       </c>
       <c r="B1169" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1170" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1171" t="s">
-        <v>2065</v>
+        <v>2204</v>
       </c>
       <c r="B1171" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1172" t="s">
-        <v>2067</v>
+        <v>2206</v>
       </c>
       <c r="B1172" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1173" t="s">
-        <v>2069</v>
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1173" s="13" t="s">
+        <v>2208</v>
       </c>
       <c r="B1173" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1174" t="s">
-        <v>2071</v>
+        <v>2210</v>
       </c>
       <c r="B1174" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1175" t="s">
-        <v>2072</v>
+        <v>2212</v>
       </c>
       <c r="B1175" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1176" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1177" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1178" t="s">
-        <v>2074</v>
+        <v>2218</v>
       </c>
       <c r="B1178" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1179" t="s">
-        <v>2076</v>
+        <v>2220</v>
       </c>
       <c r="B1179" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1180" t="s">
-        <v>2078</v>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1180" s="13" t="s">
+        <v>2222</v>
       </c>
       <c r="B1180" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1181" s="11" t="s">
-        <v>2079</v>
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1181" t="s">
+        <v>2223</v>
       </c>
       <c r="B1181" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1182" t="s">
-        <v>2080</v>
+        <v>2225</v>
       </c>
       <c r="B1182" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2226</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1183" t="s">
-        <v>2082</v>
+        <v>2233</v>
       </c>
       <c r="B1183" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1184" t="s">
-        <v>2084</v>
+        <v>2235</v>
       </c>
       <c r="B1184" t="s">
-        <v>2085</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1185" t="s">
-        <v>2086</v>
+        <v>2237</v>
       </c>
       <c r="B1185" t="s">
-        <v>1761</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1186" t="s">
-        <v>2087</v>
+        <v>2239</v>
       </c>
       <c r="B1186" t="s">
-        <v>2088</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1187" t="s">
-        <v>2089</v>
+        <v>2290</v>
       </c>
       <c r="B1187" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1188" t="s">
-        <v>2091</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1190" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1191" t="s">
-        <v>2096</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1192" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1193" t="s">
-        <v>2099</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1194" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1195" t="s">
-        <v>2102</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1196" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1197" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1198" t="s">
-        <v>2108</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1199" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1200" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1201" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1202" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1204" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B1204" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1205" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1206" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1207" s="11" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1208" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1209" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1210" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B1210" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1211" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1212" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1213" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1214" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1215" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1216" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1219" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1220" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1221" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1222" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1223" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1224" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1225" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1226" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1227" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1228" s="12" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1229" t="s">
-        <v>2160</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1230" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1231" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1233" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1234" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1235" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1236" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1237" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1238" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1239" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1240" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1241" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1242" t="s">
-        <v>2184</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1244" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1246" s="12" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1247" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1248" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1249" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1250" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1251" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1252" t="s">
-        <v>2200</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1253" t="s">
-        <v>2202</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1254" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1255" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1256" s="13" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1257" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1258" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1259" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1260" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1261" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1262" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1263" s="13" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1264" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1265" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C1265" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1266" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1267" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1268" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1269" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>599</v>
+        <v>2291</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1256" location="Студенты" display="Студенты" xr:uid="{E749D50F-59F3-46FB-A79D-93EF5AD5CBAC}"/>
-    <hyperlink ref="A1263" location="Анатомия-программы-на-rust" display="Анатомия-программы-на-rust" xr:uid="{4D17B3C3-5DA0-4FB6-9271-5294269BA9D0}"/>
+    <hyperlink ref="A1173" location="Студенты" display="Студенты" xr:uid="{E749D50F-59F3-46FB-A79D-93EF5AD5CBAC}"/>
+    <hyperlink ref="A1180" location="Анатомия-программы-на-rust" display="Анатомия-программы-на-rust" xr:uid="{4D17B3C3-5DA0-4FB6-9271-5294269BA9D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16769,15 +18044,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D669A2-CEB8-B743-9F48-CA926DA2420B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.796875" customWidth="1"/>
+    <col min="1" max="1" width="40.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16829,12 +18104,1634 @@
         <v>116</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B29" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="14" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="14" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>736</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5409384-14AD-406E-9225-D6E905D70DE3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525149A-65EC-408A-9A2A-B87A37875F9B}">
   <dimension ref="A1:A8"/>
   <sheetViews>

--- a/dictionary/замена.xlsx
+++ b/dictionary/замена.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\ex\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA82B0-97EB-49C4-B557-AA6390333EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7498E-57E7-4A08-B614-F9970F730D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Простые" sheetId="1" r:id="rId1"/>
     <sheet name="Составные" sheetId="2" r:id="rId2"/>
     <sheet name="Везде" sheetId="4" r:id="rId3"/>
-    <sheet name="не определено" sheetId="3" r:id="rId4"/>
+    <sheet name="Составные в 1 очередь" sheetId="5" r:id="rId4"/>
+    <sheet name="не определено" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="2638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="2654">
   <si>
     <t>криминальная</t>
   </si>
@@ -8055,6 +8056,54 @@
   </si>
   <si>
     <t>не везде</t>
+  </si>
+  <si>
+    <t>единственная компания</t>
+  </si>
+  <si>
+    <t>единственное предприятие</t>
+  </si>
+  <si>
+    <t>экономической модели</t>
+  </si>
+  <si>
+    <t>экономическом виде устройства</t>
+  </si>
+  <si>
+    <t>Где в этом «экономическом виде устройства»</t>
+  </si>
+  <si>
+    <t>а скупала их единственная компания</t>
+  </si>
+  <si>
+    <t>а скупало их единственное предприятие</t>
+  </si>
+  <si>
+    <t>Где в этой «экономической модели»</t>
+  </si>
+  <si>
+    <t>монопольно</t>
+  </si>
+  <si>
+    <t>единолично</t>
+  </si>
+  <si>
+    <t>монопольные</t>
+  </si>
+  <si>
+    <t>единоличные</t>
+  </si>
+  <si>
+    <t>монопольная</t>
+  </si>
+  <si>
+    <t>единоличная</t>
+  </si>
+  <si>
+    <t>монопольна</t>
+  </si>
+  <si>
+    <t>единолична</t>
   </si>
 </sst>
 </file>
@@ -8550,10 +8599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB9A67-77EF-4B4B-A409-BADD45AFE303}">
-  <dimension ref="A1:D1187"/>
+  <dimension ref="A1:D1189"/>
   <sheetViews>
-    <sheetView topLeftCell="A604" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A604" sqref="A604:XFD608"/>
+    <sheetView tabSelected="1" topLeftCell="A1168" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1190" sqref="A1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11948,7 +11997,12 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2649</v>
+      </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
@@ -12031,7 +12085,12 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2647</v>
+      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" s="1" t="s">
@@ -18031,6 +18090,22 @@
       </c>
       <c r="B1187" t="s">
         <v>2291</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1188" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1189" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2653</v>
       </c>
     </row>
   </sheetData>
@@ -18044,10 +18119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D669A2-CEB8-B743-9F48-CA926DA2420B}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19656,6 +19731,22 @@
         <v>2632</v>
       </c>
     </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19665,7 +19756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5409384-14AD-406E-9225-D6E905D70DE3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -19732,6 +19823,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AD7347-2C61-4ECD-8840-77BC33B67550}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525149A-65EC-408A-9A2A-B87A37875F9B}">
   <dimension ref="A1:A8"/>
   <sheetViews>

--- a/dictionary/замена.xlsx
+++ b/dictionary/замена.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rust\ex\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7498E-57E7-4A08-B614-F9970F730D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32832E2-2411-40AB-BDF1-4E23F093B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,9 +3558,6 @@
     <t>реформаторов</t>
   </si>
   <si>
-    <t>чиновников - решальщиков</t>
-  </si>
-  <si>
     <t>виде поведения</t>
   </si>
   <si>
@@ -8104,6 +8101,9 @@
   </si>
   <si>
     <t>единолична</t>
+  </si>
+  <si>
+    <t>чиновников-решальщиков</t>
   </si>
 </sst>
 </file>
@@ -8601,8 +8601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB9A67-77EF-4B4B-A409-BADD45AFE303}">
   <dimension ref="A1:D1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1168" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1190" sqref="A1190"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8821,10 +8821,10 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D27" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -8961,7 +8961,7 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -9049,13 +9049,13 @@
         <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -9138,7 +9138,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -9411,7 +9411,7 @@
         <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -9679,7 +9679,7 @@
         <v>265</v>
       </c>
       <c r="C137" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -9938,7 +9938,7 @@
         <v>327</v>
       </c>
       <c r="C169" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -9979,7 +9979,7 @@
         <v>144</v>
       </c>
       <c r="D173" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -10535,7 +10535,7 @@
         <v>472</v>
       </c>
       <c r="C244" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
@@ -10602,7 +10602,7 @@
         <v>488</v>
       </c>
       <c r="C252" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
@@ -10691,7 +10691,7 @@
         <v>508</v>
       </c>
       <c r="C263" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
@@ -10809,7 +10809,7 @@
         <v>535</v>
       </c>
       <c r="C277" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
@@ -10919,7 +10919,7 @@
         <v>559</v>
       </c>
       <c r="C291" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -11058,7 +11058,7 @@
         <v>593</v>
       </c>
       <c r="C308" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -11422,7 +11422,7 @@
         <v>676</v>
       </c>
       <c r="C354" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -11569,7 +11569,7 @@
         <v>710</v>
       </c>
       <c r="B373" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C373" t="s">
         <v>711</v>
@@ -11650,7 +11650,7 @@
         <v>729</v>
       </c>
       <c r="C382" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
@@ -11725,7 +11725,7 @@
         <v>746</v>
       </c>
       <c r="C391" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
@@ -11744,10 +11744,10 @@
         <v>750</v>
       </c>
       <c r="C393" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D393" t="s">
         <v>2245</v>
-      </c>
-      <c r="D393" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
@@ -11859,7 +11859,7 @@
         <v>776</v>
       </c>
       <c r="B407" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C407" t="s">
         <v>962</v>
@@ -11910,10 +11910,10 @@
         <v>787</v>
       </c>
       <c r="B413" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C413" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
@@ -11998,10 +11998,10 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B424" t="s">
         <v>2648</v>
-      </c>
-      <c r="B424" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.45">
@@ -12086,10 +12086,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B435" t="s">
         <v>2646</v>
-      </c>
-      <c r="B435" t="s">
-        <v>2647</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -12132,7 +12132,7 @@
         <v>836</v>
       </c>
       <c r="C440" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
@@ -12479,10 +12479,10 @@
         <v>917</v>
       </c>
       <c r="C483" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D483" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.45">
@@ -12800,7 +12800,7 @@
         <v>989</v>
       </c>
       <c r="C523" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
@@ -13091,7 +13091,7 @@
         <v>1057</v>
       </c>
       <c r="C559" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
@@ -13246,7 +13246,7 @@
         <v>1093</v>
       </c>
       <c r="C578" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
@@ -13281,7 +13281,7 @@
         <v>1101</v>
       </c>
       <c r="C582" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
@@ -13533,7 +13533,7 @@
         <v>579</v>
       </c>
       <c r="C616" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
@@ -13544,7 +13544,7 @@
         <v>37</v>
       </c>
       <c r="C617" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
@@ -13584,218 +13584,218 @@
         <v>1168</v>
       </c>
       <c r="B622" t="s">
-        <v>1169</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B623" t="s">
         <v>1173</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B624" t="s">
         <v>1175</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B625" t="s">
         <v>1177</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B626" t="s">
         <v>1179</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B627" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B628" t="s">
         <v>1184</v>
       </c>
-      <c r="B628" t="s">
-        <v>1185</v>
-      </c>
       <c r="C628" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A629" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B629" t="s">
         <v>1186</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B630" t="s">
         <v>1189</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B631" t="s">
         <v>1191</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B632" t="s">
         <v>1193</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B633" t="s">
         <v>1195</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B634" t="s">
         <v>1197</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B635" t="s">
         <v>1199</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C636" t="s">
         <v>1201</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B637" t="s">
         <v>1203</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B638" t="s">
         <v>1205</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B639" t="s">
         <v>1207</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B640" t="s">
         <v>1209</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B641" t="s">
         <v>1212</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B642" t="s">
         <v>1214</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B643" t="s">
         <v>1216</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B644" t="s">
         <v>1218</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B645" t="s">
         <v>1221</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B646" t="s">
         <v>1223</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B647" t="s">
         <v>1225</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B648" t="s">
         <v>958</v>
@@ -13803,23 +13803,23 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B649" t="s">
         <v>1228</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B650" t="s">
         <v>1230</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B651" t="s">
         <v>335</v>
@@ -13827,31 +13827,31 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B652" t="s">
         <v>1233</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B653" t="s">
         <v>1235</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B654" t="s">
         <v>1237</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B655" t="s">
         <v>187</v>
@@ -13859,47 +13859,47 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B656" t="s">
         <v>1240</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A657" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B657" t="s">
         <v>1242</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B658" t="s">
         <v>1244</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B659" t="s">
         <v>1246</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B660" t="s">
         <v>1248</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B661" t="s">
         <v>56</v>
@@ -13907,95 +13907,95 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B662" t="s">
         <v>1251</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B663" t="s">
         <v>1253</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B664" t="s">
         <v>1255</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B665" t="s">
         <v>1257</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B666" t="s">
         <v>1259</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B667" t="s">
         <v>1261</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B668" t="s">
         <v>1263</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B669" t="s">
         <v>1265</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B670" t="s">
         <v>1267</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B671" t="s">
         <v>1269</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B672" t="s">
         <v>1271</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B673" t="s">
         <v>784</v>
@@ -14003,221 +14003,221 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B674" t="s">
         <v>1274</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B675" t="s">
         <v>1276</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C676" t="s">
         <v>1278</v>
-      </c>
-      <c r="B676" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B677" t="s">
         <v>1280</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B678" t="s">
         <v>1282</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B679" t="s">
         <v>1284</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B680" t="s">
         <v>1286</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B681" t="s">
         <v>1288</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B682" t="s">
         <v>1290</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B683" t="s">
         <v>1292</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A684" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B684" t="s">
         <v>1294</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B685" t="s">
         <v>1296</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B686" t="s">
         <v>1298</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B687" t="s">
         <v>1300</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B688" t="s">
         <v>1302</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B689" t="s">
         <v>1304</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B690" t="s">
         <v>1306</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B691" t="s">
         <v>1308</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A692" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B692" s="7" t="s">
         <v>1310</v>
-      </c>
-      <c r="B692" s="7" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B693" t="s">
         <v>1312</v>
-      </c>
-      <c r="B693" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B694" t="s">
         <v>1314</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B695" t="s">
         <v>1316</v>
       </c>
-      <c r="B695" t="s">
+      <c r="C695" t="s">
         <v>1317</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B696" t="s">
         <v>1319</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B697" t="s">
         <v>1321</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B698" t="s">
         <v>1323</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B699" t="s">
         <v>1325</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B700" t="s">
         <v>1103</v>
@@ -14225,103 +14225,103 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B701" t="s">
         <v>1328</v>
-      </c>
-      <c r="B701" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B702" t="s">
         <v>1330</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B703" t="s">
         <v>1332</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B704" t="s">
         <v>1334</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B705" t="s">
         <v>1336</v>
-      </c>
-      <c r="B705" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B706" t="s">
         <v>1338</v>
-      </c>
-      <c r="B706" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B707" t="s">
         <v>1340</v>
-      </c>
-      <c r="B707" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B708" t="s">
         <v>1342</v>
-      </c>
-      <c r="B708" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B709" t="s">
         <v>1344</v>
-      </c>
-      <c r="B709" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B710" t="s">
         <v>1346</v>
-      </c>
-      <c r="B710" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B711" t="s">
         <v>1348</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B712" t="s">
         <v>1350</v>
-      </c>
-      <c r="B712" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B713" t="s">
         <v>981</v>
@@ -14329,79 +14329,79 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B714" t="s">
         <v>1353</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B715" t="s">
         <v>1355</v>
-      </c>
-      <c r="B715" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B716" t="s">
         <v>1357</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B717" t="s">
         <v>1359</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B718" t="s">
         <v>1361</v>
-      </c>
-      <c r="B718" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B719" t="s">
         <v>1363</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B720" t="s">
         <v>1366</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B721" t="s">
         <v>1368</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B722" t="s">
         <v>1370</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B723" t="s">
         <v>368</v>
@@ -14409,351 +14409,351 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B724" t="s">
         <v>1373</v>
-      </c>
-      <c r="B724" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B725" t="s">
         <v>1375</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B726" t="s">
         <v>1377</v>
-      </c>
-      <c r="B726" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B727" t="s">
         <v>1379</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B728" t="s">
         <v>1381</v>
-      </c>
-      <c r="B728" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B729" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B730" t="s">
         <v>1384</v>
-      </c>
-      <c r="B730" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B731" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B732" t="s">
         <v>1387</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B733" t="s">
         <v>1390</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B734" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B735" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B736" t="s">
         <v>1394</v>
-      </c>
-      <c r="B736" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B737" t="s">
         <v>1396</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B738" t="s">
         <v>1398</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B739" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B740" t="s">
         <v>1401</v>
-      </c>
-      <c r="B740" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B741" t="s">
         <v>1403</v>
-      </c>
-      <c r="B741" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B742" t="s">
         <v>1405</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B743" t="s">
         <v>1407</v>
-      </c>
-      <c r="B743" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B744" t="s">
         <v>1409</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B745" t="s">
         <v>1411</v>
-      </c>
-      <c r="B745" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B746" t="s">
         <v>1413</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B747" t="s">
         <v>1415</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B748" t="s">
         <v>1417</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B749" t="s">
         <v>1419</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B750" t="s">
         <v>1421</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B751" t="s">
         <v>1423</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B752" t="s">
         <v>1425</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B753" t="s">
         <v>1427</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B754" t="s">
         <v>1429</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B755" t="s">
         <v>1431</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B756" t="s">
         <v>1433</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B757" t="s">
         <v>1435</v>
-      </c>
-      <c r="B757" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B758" t="s">
         <v>1437</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B759" t="s">
         <v>1439</v>
-      </c>
-      <c r="B759" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B760" t="s">
         <v>1441</v>
-      </c>
-      <c r="B760" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B761" t="s">
         <v>1443</v>
-      </c>
-      <c r="B761" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B762" t="s">
         <v>1445</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B763" t="s">
         <v>1447</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B764" t="s">
         <v>1449</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B765" t="s">
         <v>1451</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B766" t="s">
         <v>1453</v>
-      </c>
-      <c r="B766" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A767" s="8" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B767" t="s">
         <v>573</v>
@@ -14761,47 +14761,47 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A768" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B768" t="s">
         <v>1456</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B769" t="s">
         <v>1458</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B770" t="s">
         <v>1460</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B771" t="s">
         <v>1462</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B772" t="s">
         <v>1464</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B773" t="s">
         <v>1127</v>
@@ -14809,63 +14809,63 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B774" t="s">
         <v>1468</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B775" t="s">
         <v>1470</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B776" t="s">
         <v>1472</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B777" t="s">
         <v>1474</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B778" t="s">
         <v>1476</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B779" t="s">
         <v>1478</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B780" t="s">
         <v>1480</v>
-      </c>
-      <c r="B780" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B781" t="s">
         <v>498</v>
@@ -14873,31 +14873,31 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B782" t="s">
         <v>1483</v>
-      </c>
-      <c r="B782" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B783" t="s">
         <v>1485</v>
-      </c>
-      <c r="B783" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B784" t="s">
         <v>1487</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B785" t="s">
         <v>754</v>
@@ -14905,175 +14905,175 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B786" t="s">
         <v>1490</v>
-      </c>
-      <c r="B786" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B787" t="s">
         <v>1492</v>
-      </c>
-      <c r="B787" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B788" t="s">
         <v>1494</v>
-      </c>
-      <c r="B788" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B789" t="s">
         <v>1496</v>
-      </c>
-      <c r="B789" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B790" t="s">
         <v>1498</v>
-      </c>
-      <c r="B790" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B791" t="s">
         <v>1500</v>
-      </c>
-      <c r="B791" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B792" t="s">
         <v>1502</v>
-      </c>
-      <c r="B792" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B793" t="s">
         <v>1504</v>
-      </c>
-      <c r="B793" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B794" t="s">
         <v>1506</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B795" t="s">
         <v>1508</v>
-      </c>
-      <c r="B795" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B796" t="s">
         <v>1510</v>
-      </c>
-      <c r="B796" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B797" t="s">
         <v>1512</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B798" t="s">
         <v>1514</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B799" t="s">
         <v>1516</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B800" t="s">
         <v>1518</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B801" t="s">
         <v>1520</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B802" t="s">
         <v>1522</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B803" t="s">
         <v>1524</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B804" t="s">
         <v>1526</v>
-      </c>
-      <c r="B804" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B805" t="s">
         <v>1528</v>
-      </c>
-      <c r="B805" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B806" t="s">
         <v>1530</v>
-      </c>
-      <c r="B806" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B807" t="s">
         <v>1018</v>
@@ -15081,63 +15081,63 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B808" t="s">
         <v>1533</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B809" t="s">
         <v>1535</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B810" t="s">
         <v>1537</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B811" t="s">
         <v>1539</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B812" t="s">
         <v>1541</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B813" t="s">
         <v>1543</v>
-      </c>
-      <c r="B813" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B814" t="s">
         <v>1545</v>
-      </c>
-      <c r="B814" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B815" t="s">
         <v>989</v>
@@ -15145,130 +15145,130 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B816" t="s">
         <v>1548</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C817" t="s">
         <v>1550</v>
-      </c>
-      <c r="B817" t="s">
-        <v>2250</v>
-      </c>
-      <c r="C817" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B818" t="s">
         <v>1552</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B819" t="s">
         <v>1554</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B820" t="s">
         <v>1556</v>
-      </c>
-      <c r="B820" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B821" t="s">
         <v>1559</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B822" t="s">
         <v>1561</v>
-      </c>
-      <c r="B822" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B823" t="s">
         <v>1563</v>
-      </c>
-      <c r="B823" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B824" t="s">
         <v>1565</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B825" t="s">
         <v>1567</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B826" t="s">
         <v>1569</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B827" t="s">
         <v>1571</v>
-      </c>
-      <c r="B827" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B828" t="s">
         <v>1573</v>
-      </c>
-      <c r="B828" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B829" t="s">
         <v>1575</v>
-      </c>
-      <c r="B829" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B830" t="s">
         <v>1577</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B831" t="s">
         <v>735</v>
@@ -15276,66 +15276,66 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B832" t="s">
         <v>1580</v>
-      </c>
-      <c r="B832" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B833" t="s">
         <v>1582</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B834" t="s">
         <v>1584</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B835" t="s">
         <v>1586</v>
       </c>
-      <c r="B835" t="s">
-        <v>1587</v>
-      </c>
       <c r="C835" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B836" t="s">
         <v>1588</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B837" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B838" t="s">
         <v>1591</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B839" t="s">
         <v>748</v>
@@ -15343,79 +15343,79 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B840" t="s">
         <v>1594</v>
-      </c>
-      <c r="B840" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B841" t="s">
         <v>1596</v>
-      </c>
-      <c r="B841" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B842" t="s">
         <v>1598</v>
-      </c>
-      <c r="B842" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B843" t="s">
         <v>1600</v>
-      </c>
-      <c r="B843" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B844" t="s">
         <v>1602</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B845" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B846" t="s">
         <v>1605</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B847" t="s">
         <v>1607</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B848" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B849" t="s">
         <v>422</v>
@@ -15423,66 +15423,66 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B850" t="s">
         <v>1611</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B851" t="s">
         <v>1613</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B852" t="s">
         <v>1615</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B853" t="s">
         <v>1617</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B854" t="s">
         <v>1619</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B856" t="s">
         <v>1621</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B857" t="s">
         <v>1623</v>
-      </c>
-      <c r="B857" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B858" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C858" t="s">
         <v>93</v>
@@ -15490,143 +15490,143 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B859" t="s">
         <v>1626</v>
-      </c>
-      <c r="B859" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B860" t="s">
         <v>1628</v>
-      </c>
-      <c r="B860" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B861" t="s">
         <v>1630</v>
-      </c>
-      <c r="B861" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B862" t="s">
         <v>1632</v>
-      </c>
-      <c r="B862" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B864" t="s">
         <v>1635</v>
-      </c>
-      <c r="B864" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B865" t="s">
         <v>1637</v>
-      </c>
-      <c r="B865" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B866" t="s">
         <v>1639</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B867" t="s">
         <v>1641</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B868" t="s">
         <v>1643</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B869" t="s">
         <v>1645</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B870" t="s">
         <v>1647</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B871" t="s">
         <v>1649</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B872" t="s">
         <v>1651</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B873" t="s">
         <v>1653</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B874" t="s">
         <v>1655</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B875" t="s">
         <v>1657</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B876" t="s">
         <v>1659</v>
-      </c>
-      <c r="B876" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B877" t="s">
         <v>223</v>
@@ -15634,66 +15634,66 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B878" t="s">
         <v>1662</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B879" t="s">
         <v>1664</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B880" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B881" t="s">
         <v>1667</v>
-      </c>
-      <c r="B881" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B882" t="s">
         <v>1669</v>
-      </c>
-      <c r="B882" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B883" t="s">
         <v>1671</v>
-      </c>
-      <c r="B883" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B884" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B885" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.45">
@@ -15701,7 +15701,7 @@
         <v>107</v>
       </c>
       <c r="B886" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C886" t="s">
         <v>108</v>
@@ -15709,247 +15709,247 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B887" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B888" t="s">
         <v>1679</v>
-      </c>
-      <c r="B888" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B890" t="s">
         <v>1681</v>
-      </c>
-      <c r="B890" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B891" t="s">
         <v>1683</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B892" t="s">
         <v>1685</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B893" t="s">
         <v>1687</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B894" t="s">
         <v>1689</v>
-      </c>
-      <c r="B894" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B895" t="s">
         <v>1691</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A896" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B896" t="s">
         <v>1693</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B897" t="s">
         <v>1695</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B898" t="s">
         <v>1697</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A899" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B899" t="s">
         <v>1699</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B900" t="s">
         <v>1701</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B901" t="s">
         <v>1703</v>
-      </c>
-      <c r="B901" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B902" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B903" t="s">
         <v>1706</v>
-      </c>
-      <c r="B903" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B904" t="s">
         <v>1708</v>
-      </c>
-      <c r="B904" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A905" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B905" t="s">
         <v>1710</v>
-      </c>
-      <c r="B905" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A906" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B906" t="s">
         <v>1712</v>
-      </c>
-      <c r="B906" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A907" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B907" t="s">
         <v>1714</v>
-      </c>
-      <c r="B907" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B909" t="s">
         <v>1716</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B910" t="s">
         <v>1718</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B911" t="s">
         <v>1720</v>
-      </c>
-      <c r="B911" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A912" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B912" t="s">
         <v>1722</v>
-      </c>
-      <c r="B912" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B913" t="s">
         <v>1724</v>
-      </c>
-      <c r="B913" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B914" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B915" t="s">
         <v>1727</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B916" t="s">
         <v>1730</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A917" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B917" t="s">
         <v>1732</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B918" t="s">
         <v>1734</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A919" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B919" t="s">
         <v>518</v>
@@ -15957,159 +15957,159 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B920" t="s">
         <v>1737</v>
-      </c>
-      <c r="B920" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A921" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B921" t="s">
         <v>1739</v>
-      </c>
-      <c r="B921" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B922" t="s">
         <v>1741</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B923" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B924" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B925" t="s">
         <v>1745</v>
-      </c>
-      <c r="B925" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B926" t="s">
         <v>1747</v>
-      </c>
-      <c r="B926" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B927" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B928" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B929" t="s">
         <v>1751</v>
-      </c>
-      <c r="B929" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B930" t="s">
         <v>1753</v>
-      </c>
-      <c r="B930" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B931" t="s">
         <v>1755</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B932" t="s">
         <v>1757</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B933" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B934" t="s">
         <v>1760</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A935" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B935" t="s">
         <v>1762</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A936" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B936" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A937" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B937" t="s">
         <v>1765</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B938" t="s">
         <v>1767</v>
-      </c>
-      <c r="B938" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B939" t="s">
         <v>560</v>
@@ -16117,58 +16117,58 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B940" t="s">
         <v>1770</v>
-      </c>
-      <c r="B940" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A941" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B941" t="s">
         <v>1772</v>
-      </c>
-      <c r="B941" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A942" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B942" t="s">
         <v>1774</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A943" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B943" t="s">
         <v>1776</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A945" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B945" t="s">
         <v>1778</v>
-      </c>
-      <c r="B945" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A946" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B946" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A947" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B947" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C947" t="s">
         <v>335</v>
@@ -16176,50 +16176,50 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A948" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C948" t="s">
         <v>1783</v>
-      </c>
-      <c r="B948" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C948" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A950" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B950" t="s">
         <v>1785</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B951" t="s">
         <v>1787</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A952" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B952" t="s">
         <v>1789</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A953" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B953" t="s">
         <v>1791</v>
-      </c>
-      <c r="B953" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A954" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B954" t="s">
         <v>613</v>
@@ -16227,55 +16227,55 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A955" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B955" t="s">
         <v>1794</v>
-      </c>
-      <c r="B955" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A956" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B956" t="s">
         <v>1796</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A957" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B957" t="s">
         <v>1798</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A958" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B958" t="s">
         <v>1800</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A959" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B959" t="s">
         <v>1802</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A960" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B960" t="s">
         <v>1804</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A961" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B961" t="s">
         <v>335</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A962" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B962" t="s">
         <v>486</v>
@@ -16291,7 +16291,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A963" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B963" t="s">
         <v>144</v>
@@ -16299,263 +16299,263 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A964" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B964" t="s">
         <v>1809</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A965" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B965" t="s">
         <v>1811</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A966" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B966" t="s">
         <v>1813</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A967" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B967" t="s">
         <v>1815</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A968" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B968" t="s">
         <v>1817</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A969" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B969" t="s">
         <v>1820</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A970" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B970" t="s">
         <v>1822</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A971" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B971" t="s">
         <v>1824</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A972" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B972" t="s">
         <v>1826</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A973" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B973" t="s">
         <v>1828</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A974" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B974" t="s">
         <v>1830</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A975" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B975" t="s">
         <v>1833</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A976" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B976" t="s">
         <v>1835</v>
-      </c>
-      <c r="B976" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A977" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B977" t="s">
         <v>1837</v>
-      </c>
-      <c r="B977" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A978" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B978" t="s">
         <v>1839</v>
-      </c>
-      <c r="B978" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A979" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B979" t="s">
         <v>1842</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A980" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B980" t="s">
         <v>1844</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A981" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B981" t="s">
         <v>1846</v>
-      </c>
-      <c r="B981" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A982" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B982" t="s">
         <v>1848</v>
-      </c>
-      <c r="B982" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A983" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B983" t="s">
         <v>1850</v>
-      </c>
-      <c r="B983" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A984" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B984" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A985" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B985" t="s">
         <v>1853</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A986" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B986" t="s">
         <v>1855</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A987" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B987" t="s">
         <v>1857</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A988" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B988" t="s">
         <v>1859</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A989" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B989" t="s">
         <v>1861</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A990" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B990" t="s">
         <v>1863</v>
-      </c>
-      <c r="B990" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A991" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B991" t="s">
         <v>1865</v>
-      </c>
-      <c r="B991" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A992" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B992" t="s">
         <v>1867</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A993" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B993" t="s">
         <v>1869</v>
-      </c>
-      <c r="B993" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A994" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B994" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A995" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B995" t="s">
         <v>1872</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A996" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B996" t="s">
         <v>223</v>
@@ -16563,31 +16563,31 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A997" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B997" t="s">
         <v>1875</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B998" t="s">
         <v>1877</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A999" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B999" t="s">
         <v>1879</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1000" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1000" t="s">
         <v>249</v>
@@ -16595,375 +16595,375 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1001" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1001" t="s">
         <v>1882</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1002" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1002" t="s">
         <v>1884</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1003" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1003" t="s">
         <v>1886</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1004" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1888</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1005" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1005" t="s">
         <v>1890</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1006" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1006" t="s">
         <v>1892</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1007" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1007" t="s">
         <v>1894</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1008" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1008" t="s">
         <v>1896</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1009" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1009" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1010" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1899</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1011" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1011" t="s">
         <v>1901</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1012" s="10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1012" t="s">
         <v>1904</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="1013" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1013" s="10" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1013" t="s">
         <v>1906</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1014" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1014" t="s">
         <v>1908</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="1015" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1015" s="10" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1015" t="s">
         <v>1910</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="1016" spans="1:2" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1016" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1912</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1017" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1017" t="s">
         <v>1914</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1018" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1018" t="s">
         <v>1916</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1019" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1020" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1020" t="s">
         <v>2288</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1021" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1021" t="s">
         <v>1921</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1022" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B1022" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1023" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1023" t="s">
         <v>1925</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1024" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1024" t="s">
         <v>1927</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1025" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1025" t="s">
         <v>1929</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1026" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1026" t="s">
         <v>1933</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1027" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1027" t="s">
         <v>1935</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1028" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1028" t="s">
         <v>1937</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1029" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1029" t="s">
         <v>1939</v>
-      </c>
-      <c r="B1029" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1030" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1030" t="s">
         <v>1942</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1031" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1031" t="s">
         <v>1944</v>
-      </c>
-      <c r="B1031" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1032" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1032" t="s">
         <v>1946</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1033" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1948</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1034" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1034" t="s">
         <v>1950</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1035" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1035" t="s">
         <v>1952</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1036" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1954</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1037" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1037" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1038" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1038" t="s">
         <v>1957</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1039" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1959</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1040" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1961</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1041" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1963</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1042" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1965</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1043" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1967</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1044" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1044" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1045" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1045" t="s">
         <v>1970</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1046" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1046" t="s">
         <v>1972</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1047" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1047" t="s">
         <v>569</v>
@@ -16971,23 +16971,23 @@
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1048" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1975</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1049" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1977</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1050" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1050" t="s">
         <v>682</v>
@@ -16995,119 +16995,119 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1051" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1980</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1052" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1982</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1053" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1984</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1054" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1986</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1055" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1988</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1056" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1056" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1057" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1057" t="s">
         <v>1991</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1058" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1993</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1059" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1059" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1060" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1996</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1061" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1998</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1062" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1062" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1063" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1063" t="s">
         <v>2002</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1064" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1064" t="s">
         <v>2004</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>2005</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1065" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1065" t="s">
         <v>940</v>
@@ -17115,7 +17115,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1066" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1066" t="s">
         <v>545</v>
@@ -17123,119 +17123,119 @@
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1067" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1067" t="s">
         <v>2009</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1068" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1068" t="s">
         <v>2012</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1069" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1069" t="s">
         <v>2014</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1070" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1070" t="s">
         <v>2016</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1071" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1071" t="s">
         <v>2018</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1072" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1072" t="s">
         <v>2020</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1073" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1073" t="s">
         <v>2022</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1074" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1074" t="s">
         <v>2024</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1075" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1075" t="s">
         <v>2027</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1076" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1076" t="s">
         <v>2029</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1077" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1077" t="s">
         <v>2031</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1078" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1078" t="s">
         <v>2033</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1079" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1079" t="s">
         <v>2035</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1080" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1080" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1081" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1081" t="s">
         <v>93</v>
@@ -17243,31 +17243,31 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1082" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1082" t="s">
         <v>2039</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1083" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1083" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1084" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1084" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1085" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1085" t="s">
         <v>93</v>
@@ -17275,375 +17275,375 @@
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1086" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1086" t="s">
         <v>2043</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1087" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1087" t="s">
         <v>2045</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1088" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1088" t="s">
         <v>2047</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1089" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1089" t="s">
         <v>2049</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1090" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1090" t="s">
         <v>2051</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1091" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1091" t="s">
         <v>2053</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1092" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1092" t="s">
         <v>2055</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1093" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1093" t="s">
         <v>2057</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1094" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1094" t="s">
         <v>2059</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1095" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1095" t="s">
         <v>2061</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1096" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1096" t="s">
         <v>2063</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1097" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1097" t="s">
         <v>2065</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1098" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1098" t="s">
         <v>2067</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1099" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1099" t="s">
         <v>2069</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1100" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1100" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1101" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1101" t="s">
         <v>2072</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1102" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1102" t="s">
         <v>2074</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1103" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1103" t="s">
         <v>2076</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1104" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1104" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1105" s="11" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1105" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1106" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1106" t="s">
         <v>2080</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1107" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1107" t="s">
         <v>2082</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1108" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1108" t="s">
         <v>2084</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1109" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1109" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1110" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1110" t="s">
         <v>2087</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1111" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1111" t="s">
         <v>2089</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1112" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1112" t="s">
         <v>2091</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1113" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1113" t="s">
         <v>2094</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1114" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1115" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1115" t="s">
         <v>2097</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1116" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1116" t="s">
         <v>2099</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1117" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1117" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1118" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1118" t="s">
         <v>2102</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1119" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1119" t="s">
         <v>2104</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1120" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1120" t="s">
         <v>2106</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>2107</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1121" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1121" t="s">
         <v>2108</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1122" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1122" t="s">
         <v>2110</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1123" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1123" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1124" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1124" t="s">
         <v>2113</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1125" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1125" t="s">
         <v>2115</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>2116</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1126" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1126" t="s">
         <v>2117</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1127" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1127" t="s">
         <v>2119</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1128" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1128" t="s">
         <v>2121</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1129" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1129" t="s">
         <v>2123</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1130" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1130" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1131" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1131" t="s">
         <v>2126</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1132" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1132" t="s">
         <v>682</v>
@@ -17651,247 +17651,247 @@
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1133" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1133" t="s">
         <v>2129</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1134" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1134" t="s">
         <v>2131</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1135" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1135" t="s">
         <v>2133</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1136" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1136" t="s">
         <v>2135</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1137" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1137" t="s">
         <v>2137</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1138" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1138" t="s">
         <v>2139</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1139" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1139" t="s">
         <v>2142</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1140" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1140" t="s">
         <v>2144</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1141" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1141" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1142" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1142" t="s">
         <v>2148</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1143" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1143" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1144" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1144" t="s">
         <v>2152</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1145" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1145" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1146" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1146" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1147" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1147" t="s">
         <v>2158</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1148" s="12" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1148" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1149" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1149" t="s">
         <v>2160</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1150" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1150" t="s">
         <v>2162</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1151" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1151" t="s">
         <v>2164</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1152" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1152" t="s">
         <v>2167</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1153" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1153" t="s">
         <v>2169</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1154" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1154" t="s">
         <v>2171</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1155" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1155" t="s">
         <v>2173</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1156" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1156" t="s">
         <v>2175</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1157" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1157" t="s">
         <v>2177</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1158" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1158" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1159" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1159" t="s">
         <v>2180</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1160" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1160" t="s">
         <v>2182</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1161" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1161" t="s">
         <v>2184</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1162" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1162" t="s">
         <v>2186</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1163" s="12" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B1163" t="s">
         <v>613</v>
@@ -17899,186 +17899,186 @@
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1164" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1164" t="s">
         <v>2190</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1165" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1165" t="s">
         <v>2192</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1166" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1166" t="s">
         <v>2194</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1167" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1167" t="s">
         <v>2196</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1168" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1168" t="s">
         <v>2198</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1169" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1169" t="s">
         <v>2200</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1170" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1170" t="s">
         <v>2202</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1171" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1171" t="s">
         <v>2204</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1172" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1172" t="s">
         <v>2206</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1173" s="13" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1173" t="s">
         <v>2208</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1174" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1174" t="s">
         <v>2210</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1175" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1175" t="s">
         <v>2212</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1176" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1176" t="s">
         <v>2214</v>
-      </c>
-      <c r="B1176" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1177" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1177" t="s">
         <v>2216</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1178" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1178" t="s">
         <v>2218</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1179" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1179" t="s">
         <v>2220</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1180" s="13" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1180" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1181" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1181" t="s">
         <v>2223</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1182" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1182" t="s">
         <v>2225</v>
       </c>
-      <c r="B1182" t="s">
+      <c r="C1182" t="s">
         <v>2226</v>
-      </c>
-      <c r="C1182" t="s">
-        <v>2227</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1183" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1183" t="s">
         <v>2233</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1184" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1184" t="s">
         <v>2235</v>
-      </c>
-      <c r="B1184" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1185" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1185" t="s">
         <v>2237</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1186" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1186" t="s">
         <v>599</v>
@@ -18086,26 +18086,26 @@
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1187" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1187" t="s">
         <v>2290</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1188" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1188" t="s">
         <v>2650</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>2651</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1189" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1189" t="s">
         <v>2652</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>2653</v>
       </c>
     </row>
   </sheetData>
@@ -18157,18 +18157,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B4" t="s">
         <v>2240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" t="s">
         <v>2242</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -18181,183 +18181,183 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B7" t="s">
         <v>2251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B8" t="s">
         <v>2253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B9" t="s">
         <v>2255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2257</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B12" t="s">
         <v>2260</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B13" t="s">
         <v>2262</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B14" t="s">
         <v>2264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B15" t="s">
         <v>2266</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B16" t="s">
         <v>2268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B17" t="s">
         <v>2270</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B18" t="s">
         <v>2272</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B19" t="s">
         <v>2274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B20" t="s">
         <v>2276</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B21" t="s">
         <v>2278</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B22" t="s">
         <v>2280</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B23" t="s">
         <v>2282</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B24" t="s">
         <v>2284</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B25" t="s">
         <v>2286</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B26" t="s">
         <v>2292</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B27" t="s">
         <v>2294</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B29" t="s">
         <v>942</v>
@@ -18365,1170 +18365,1170 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B30" t="s">
         <v>2299</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2302</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B32" t="s">
         <v>2303</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B33" t="s">
         <v>2305</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2306</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B35" t="s">
         <v>2309</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B36" t="s">
         <v>2311</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B37" t="s">
         <v>2313</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B38" t="s">
         <v>2315</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B39" t="s">
         <v>2317</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B40" t="s">
         <v>2319</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B41" t="s">
         <v>2321</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B42" t="s">
         <v>2323</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B43" t="s">
         <v>2325</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B44" t="s">
         <v>2327</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B45" t="s">
         <v>2329</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B46" t="s">
         <v>2331</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B47" t="s">
         <v>2333</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B48" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B49" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B50" t="s">
         <v>2336</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B51" t="s">
         <v>2338</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B52" t="s">
         <v>2340</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B53" t="s">
         <v>2342</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B54" t="s">
         <v>2344</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B55" t="s">
         <v>2346</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B56" t="s">
         <v>2348</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B57" t="s">
         <v>2350</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B58" t="s">
         <v>2352</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B59" t="s">
         <v>2354</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B60" t="s">
         <v>2356</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B61" t="s">
         <v>2358</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B62" t="s">
         <v>2360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B63" t="s">
         <v>2362</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B64" t="s">
         <v>2364</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B65" t="s">
         <v>2366</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B66" t="s">
         <v>2368</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B67" t="s">
         <v>2370</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2371</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B68" t="s">
         <v>2372</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B69" t="s">
         <v>2374</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>2376</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>2378</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B72" t="s">
         <v>2380</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B73" t="s">
         <v>2382</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B74" t="s">
         <v>2384</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B75" t="s">
         <v>2386</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B76" t="s">
         <v>2388</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B77" t="s">
         <v>2390</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B78" t="s">
         <v>2392</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B79" t="s">
         <v>2394</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B80" t="s">
         <v>2396</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2397</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B81" t="s">
         <v>2398</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2399</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B82" t="s">
         <v>2400</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B83" t="s">
         <v>2402</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2403</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B84" t="s">
         <v>2404</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B85" t="s">
         <v>2406</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B86" t="s">
         <v>2408</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B87" t="s">
         <v>2410</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B88" t="s">
         <v>2412</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B89" t="s">
         <v>2414</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B90" t="s">
         <v>2416</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B91" t="s">
         <v>2418</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B92" t="s">
         <v>2420</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B93" t="s">
         <v>2422</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B94" t="s">
         <v>2424</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B95" t="s">
         <v>2426</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B96" t="s">
         <v>2428</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B97" t="s">
         <v>2430</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B98" t="s">
         <v>2432</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B99" t="s">
         <v>2434</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B100" t="s">
         <v>2436</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B101" t="s">
         <v>2438</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B102" t="s">
         <v>2440</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B103" t="s">
         <v>2442</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B104" t="s">
         <v>2444</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B105" t="s">
         <v>2446</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B106" t="s">
         <v>2448</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B107" t="s">
         <v>2450</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B108" t="s">
         <v>2452</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B109" t="s">
         <v>2454</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B110" t="s">
         <v>2456</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B111" t="s">
         <v>2458</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B112" t="s">
         <v>2460</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B113" t="s">
         <v>2462</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B114" t="s">
         <v>2464</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B115" t="s">
         <v>2466</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2467</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B116" t="s">
         <v>2468</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2469</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B117" t="s">
         <v>2470</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B118" t="s">
         <v>2472</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B119" t="s">
         <v>2474</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2475</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B120" t="s">
         <v>2476</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B121" t="s">
         <v>2478</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B122" t="s">
         <v>2480</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B123" t="s">
         <v>2482</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2483</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B124" t="s">
         <v>2484</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2485</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B125" t="s">
         <v>2486</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B126" t="s">
         <v>2488</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B127" t="s">
         <v>2490</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2491</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B128" t="s">
         <v>2492</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B129" t="s">
         <v>2494</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B130" t="s">
         <v>2496</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B131" t="s">
         <v>2498</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B132" t="s">
         <v>2500</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B133" t="s">
         <v>2502</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B134" t="s">
         <v>2504</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B135" t="s">
         <v>2506</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B136" t="s">
         <v>2508</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B137" t="s">
         <v>2510</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B138" t="s">
         <v>2512</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B139" t="s">
         <v>2514</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B140" t="s">
         <v>2516</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B141" t="s">
         <v>2518</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B142" t="s">
         <v>2520</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B143" t="s">
         <v>2522</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B144" t="s">
         <v>2524</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B145" t="s">
         <v>2526</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2527</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B146" t="s">
         <v>2528</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B147" t="s">
         <v>2530</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2531</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B148" t="s">
         <v>2532</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B149" t="s">
         <v>2534</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B150" t="s">
         <v>2536</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B151" t="s">
         <v>2538</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B152" t="s">
         <v>2540</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B153" t="s">
         <v>2542</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B154" t="s">
         <v>2544</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B155" t="s">
         <v>2546</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B156" t="s">
         <v>2548</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B157" t="s">
         <v>2550</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B158" t="s">
         <v>2552</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B159" t="s">
         <v>2554</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B160" t="s">
         <v>2556</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B161" t="s">
         <v>2558</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B162" t="s">
         <v>2560</v>
-      </c>
-      <c r="B162" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B163" t="s">
         <v>2562</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2563</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B164" t="s">
         <v>2564</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B165" t="s">
         <v>2566</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B166" t="s">
         <v>2568</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B167" t="s">
         <v>2570</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B168" t="s">
         <v>2572</v>
-      </c>
-      <c r="B168" t="s">
-        <v>2573</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B169" t="s">
         <v>2574</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B170" t="s">
         <v>2576</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2577</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B171" t="s">
         <v>2578</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B172" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B173" t="s">
         <v>2581</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B174" t="s">
         <v>2583</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B175" t="s">
         <v>2585</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -19536,12 +19536,12 @@
         <v>736</v>
       </c>
       <c r="B176" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B177" t="s">
         <v>126</v>
@@ -19549,202 +19549,202 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B178" t="s">
         <v>2589</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>2591</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B180" t="s">
         <v>2593</v>
-      </c>
-      <c r="B180" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B181" t="s">
         <v>2595</v>
-      </c>
-      <c r="B181" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B182" t="s">
         <v>2597</v>
-      </c>
-      <c r="B182" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B183" t="s">
         <v>2599</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B184" t="s">
         <v>2601</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B185" t="s">
         <v>2603</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B186" t="s">
         <v>2605</v>
-      </c>
-      <c r="B186" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B187" t="s">
         <v>2607</v>
-      </c>
-      <c r="B187" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B188" t="s">
         <v>2609</v>
-      </c>
-      <c r="B188" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B189" t="s">
         <v>2611</v>
-      </c>
-      <c r="B189" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B190" t="s">
         <v>2613</v>
-      </c>
-      <c r="B190" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B191" t="s">
         <v>2615</v>
-      </c>
-      <c r="B191" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B192" t="s">
         <v>2617</v>
-      </c>
-      <c r="B192" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B193" t="s">
         <v>2619</v>
-      </c>
-      <c r="B193" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B194" t="s">
         <v>2621</v>
-      </c>
-      <c r="B194" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B195" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B196" t="s">
         <v>2624</v>
-      </c>
-      <c r="B196" t="s">
-        <v>2625</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B197" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B198" t="s">
         <v>2627</v>
-      </c>
-      <c r="B198" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B199" t="s">
         <v>2629</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B200" t="s">
         <v>2631</v>
-      </c>
-      <c r="B200" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B201" t="s">
         <v>2638</v>
-      </c>
-      <c r="B201" t="s">
-        <v>2639</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B202" t="s">
         <v>2640</v>
-      </c>
-      <c r="B202" t="s">
-        <v>2641</v>
       </c>
     </row>
   </sheetData>
@@ -19768,10 +19768,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1" t="s">
         <v>1571</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -19782,39 +19782,39 @@
         <v>579</v>
       </c>
       <c r="G2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B3" t="s">
         <v>2290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B4" t="s">
         <v>1248</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B5" t="s">
         <v>2635</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2636</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B6" t="s">
         <v>2288</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2289</v>
       </c>
     </row>
   </sheetData>
@@ -19838,18 +19838,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B2" t="s">
         <v>2643</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2644</v>
       </c>
     </row>
   </sheetData>
@@ -19889,17 +19889,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
